--- a/conf/paramConfig.xlsx
+++ b/conf/paramConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asamuel/Projects/ccs-datim-data-import/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0046E419-901F-D245-A90F-6E6D171D7B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4548478A-C2D7-1544-A85F-9B3C1F83913D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" activeTab="7" xr2:uid="{4E933D9A-35E3-C745-AC08-A164B8EEBD08}"/>
+    <workbookView xWindow="15400" yWindow="500" windowWidth="26800" windowHeight="19560" firstSheet="2" activeTab="9" xr2:uid="{4E933D9A-35E3-C745-AC08-A164B8EEBD08}"/>
   </bookViews>
   <sheets>
     <sheet name="mer_datasets_id" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="396">
   <si>
     <t>MER C&amp;T</t>
   </si>
@@ -473,12 +473,6 @@
     <t>Romao</t>
   </si>
   <si>
-    <t>Pcanico</t>
-  </si>
-  <si>
-    <t>Ccivil</t>
-  </si>
-  <si>
     <t>Malhangalene</t>
   </si>
   <si>
@@ -488,15 +482,9 @@
     <t>Maxaquene</t>
   </si>
   <si>
-    <t>Pcimento</t>
-  </si>
-  <si>
     <t>HPI</t>
   </si>
   <si>
-    <t>Mtendas</t>
-  </si>
-  <si>
     <t>Incassane</t>
   </si>
   <si>
@@ -1154,9 +1142,6 @@
     <t>DSD PREP,DSD TB PREV,DSD GEND GBV,DSD FPINT SITE</t>
   </si>
   <si>
-    <t>DSD HTS TST COMMUNITY OTHER,DSD HTS INDEX COMMUNITY</t>
-  </si>
-  <si>
     <t>LAB PTCQI,PMTCT FO</t>
   </si>
   <si>
@@ -1164,13 +1149,97 @@
   </si>
   <si>
     <t>DSD TX NEW,DSD TX CURR,DSD TX RTT,DSD TX ML,DSD PMCT ART,DSD TX PVLS,DSD TX TB,DSD TB ART</t>
+  </si>
+  <si>
+    <t>yEJF0gLWJ3M</t>
+  </si>
+  <si>
+    <t>foPEfoFVknQ</t>
+  </si>
+  <si>
+    <t>kllBvMTCXLE</t>
+  </si>
+  <si>
+    <t>ydlqLc8aswr</t>
+  </si>
+  <si>
+    <t>QGkcBfi9Y4T</t>
+  </si>
+  <si>
+    <t>GZM6MBIwrs3</t>
+  </si>
+  <si>
+    <t>aH9Lc042Zmu</t>
+  </si>
+  <si>
+    <t>GrEI5LZLmJJ</t>
+  </si>
+  <si>
+    <t>mh2WLX4g3WD</t>
+  </si>
+  <si>
+    <t>ZoR8klcQ1J8</t>
+  </si>
+  <si>
+    <t>Bilene_D</t>
+  </si>
+  <si>
+    <t>Chibuto_D</t>
+  </si>
+  <si>
+    <t>Chokwe_D</t>
+  </si>
+  <si>
+    <t>Chongoene_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XaiXai_D</t>
+  </si>
+  <si>
+    <t>Guija_D</t>
+  </si>
+  <si>
+    <t>Limpopo_D</t>
+  </si>
+  <si>
+    <t>Mabalane_D</t>
+  </si>
+  <si>
+    <t>Mandlakaze_D</t>
+  </si>
+  <si>
+    <t>Mapai_D</t>
+  </si>
+  <si>
+    <t>Massingir_D</t>
+  </si>
+  <si>
+    <t>Qeubs8yLwuO</t>
+  </si>
+  <si>
+    <t>GqENHaHYzP0</t>
+  </si>
+  <si>
+    <t>DSD HTS TST COMMUNITY OTHER,DSD HTS INDEX COMMUNITY,DSD HTS TST COMMUNITY MOBILE</t>
+  </si>
+  <si>
+    <t>PCanico</t>
+  </si>
+  <si>
+    <t>CCivil</t>
+  </si>
+  <si>
+    <t>PCimento</t>
+  </si>
+  <si>
+    <t>MTendas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1181,13 +1250,33 @@
     <font>
       <sz val="12"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171C1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF171C1F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1210,17 +1299,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1567,21 +1679,21 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1589,7 +1701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1597,7 +1709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1605,7 +1717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1613,7 +1725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1621,7 +1733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1629,7 +1741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1637,7 +1749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1652,829 +1764,930 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C226DE-F020-454C-975D-64191FC04A0B}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>191</v>
-      </c>
-      <c r="B18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>195</v>
-      </c>
-      <c r="B20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>197</v>
-      </c>
-      <c r="B21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>201</v>
-      </c>
-      <c r="B23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>203</v>
-      </c>
-      <c r="B24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>205</v>
-      </c>
-      <c r="B25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>207</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>209</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>211</v>
-      </c>
-      <c r="B28" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>217</v>
-      </c>
-      <c r="B31" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>219</v>
-      </c>
-      <c r="B32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>223</v>
-      </c>
-      <c r="B34" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>225</v>
-      </c>
-      <c r="B35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>227</v>
-      </c>
-      <c r="B36" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>229</v>
-      </c>
-      <c r="B37" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>231</v>
-      </c>
-      <c r="B38" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>233</v>
-      </c>
-      <c r="B39" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>235</v>
-      </c>
-      <c r="B40" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>237</v>
-      </c>
-      <c r="B41" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>239</v>
-      </c>
-      <c r="B42" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>241</v>
-      </c>
-      <c r="B43" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>243</v>
-      </c>
-      <c r="B44" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>245</v>
-      </c>
-      <c r="B45" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>247</v>
-      </c>
-      <c r="B46" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>249</v>
-      </c>
-      <c r="B47" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>251</v>
-      </c>
-      <c r="B48" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>253</v>
-      </c>
-      <c r="B49" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>255</v>
-      </c>
-      <c r="B50" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>257</v>
-      </c>
-      <c r="B51" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>259</v>
-      </c>
-      <c r="B52" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>261</v>
-      </c>
-      <c r="B53" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>263</v>
-      </c>
-      <c r="B54" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>265</v>
-      </c>
-      <c r="B55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>267</v>
-      </c>
-      <c r="B56" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>269</v>
-      </c>
-      <c r="B57" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>271</v>
-      </c>
-      <c r="B58" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>273</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>275</v>
-      </c>
-      <c r="B60" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>277</v>
-      </c>
-      <c r="B61" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>279</v>
-      </c>
-      <c r="B62" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>281</v>
-      </c>
-      <c r="B63" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>283</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>285</v>
-      </c>
-      <c r="B65" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>287</v>
-      </c>
-      <c r="B66" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>289</v>
-      </c>
-      <c r="B67" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>291</v>
-      </c>
-      <c r="B68" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>293</v>
-      </c>
-      <c r="B69" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>295</v>
-      </c>
-      <c r="B70" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>297</v>
-      </c>
-      <c r="B71" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>299</v>
-      </c>
-      <c r="B72" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>301</v>
-      </c>
-      <c r="B73" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>303</v>
-      </c>
-      <c r="B74" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>305</v>
-      </c>
-      <c r="B75" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>307</v>
-      </c>
-      <c r="B76" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>309</v>
-      </c>
-      <c r="B77" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>311</v>
-      </c>
-      <c r="B78" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>313</v>
-      </c>
-      <c r="B79" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>315</v>
-      </c>
-      <c r="B80" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>317</v>
-      </c>
-      <c r="B81" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>319</v>
-      </c>
-      <c r="B82" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>321</v>
-      </c>
-      <c r="B83" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>323</v>
-      </c>
-      <c r="B84" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>325</v>
-      </c>
-      <c r="B85" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>327</v>
-      </c>
-      <c r="B86" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>329</v>
-      </c>
-      <c r="B87" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>331</v>
-      </c>
-      <c r="B88" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>333</v>
-      </c>
-      <c r="B89" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>335</v>
-      </c>
-      <c r="B90" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>337</v>
-      </c>
-      <c r="B91" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>339</v>
-      </c>
-      <c r="B92" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>341</v>
-      </c>
-      <c r="B93" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>343</v>
-      </c>
-      <c r="B94" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>345</v>
-      </c>
-      <c r="B95" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>347</v>
-      </c>
-      <c r="B96" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>349</v>
-      </c>
-      <c r="B97" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>350</v>
-      </c>
-      <c r="B98" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>352</v>
-      </c>
-      <c r="B99" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>354</v>
-      </c>
-      <c r="B100" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>356</v>
-      </c>
-      <c r="B101" t="s">
-        <v>357</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B101">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B28 B30:B60 B62:B101">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:B60 B1:B28 B62:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2488,21 +2701,21 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2510,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2518,7 +2731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2526,7 +2739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2534,7 +2747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2542,7 +2755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2550,7 +2763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2571,21 +2784,21 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2593,7 +2806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2601,7 +2814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2609,7 +2822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2617,7 +2830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2625,7 +2838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2633,7 +2846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2641,7 +2854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2662,21 +2875,21 @@
       <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -2684,7 +2897,7 @@
         <v>202409</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -2692,7 +2905,7 @@
         <v>202410</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -2700,7 +2913,7 @@
         <v>202411</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -2708,7 +2921,7 @@
         <v>202412</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -2716,7 +2929,7 @@
         <v>202501</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -2724,7 +2937,7 @@
         <v>202502</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -2732,7 +2945,7 @@
         <v>202503</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -2740,7 +2953,7 @@
         <v>202504</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -2748,7 +2961,7 @@
         <v>202505</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -2756,7 +2969,7 @@
         <v>202506</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -2764,7 +2977,7 @@
         <v>202507</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -2772,7 +2985,7 @@
         <v>202508</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -2780,7 +2993,7 @@
         <v>202509</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -2788,7 +3001,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -2796,7 +3009,7 @@
         <v>202511</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -2817,21 +3030,21 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2839,7 +3052,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2847,7 +3060,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2855,7 +3068,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2863,7 +3076,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2871,7 +3084,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -2879,7 +3092,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2887,7 +3100,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -2908,20 +3121,20 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" t="s">
         <v>358</v>
       </c>
-      <c r="B1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -2942,21 +3155,21 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -2964,7 +3177,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -2972,7 +3185,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2980,7 +3193,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -2988,7 +3201,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -2996,7 +3209,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -3004,7 +3217,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -3021,78 +3234,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617E2EE4-4FAE-904B-B397-EE44A2034DC2}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="91.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>371</v>
+      <c r="B8" s="2" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3106,316 +3319,316 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="B19" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="B26" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="B27" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
+      <c r="B30" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>136</v>
       </c>
     </row>

--- a/conf/paramConfig.xlsx
+++ b/conf/paramConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asamuel/Projects/ccs-datim-data-import/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4548478A-C2D7-1544-A85F-9B3C1F83913D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA61108-590D-0241-BFCD-41B5CDDE88FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15400" yWindow="500" windowWidth="26800" windowHeight="19560" firstSheet="2" activeTab="9" xr2:uid="{4E933D9A-35E3-C745-AC08-A164B8EEBD08}"/>
+    <workbookView xWindow="1880" yWindow="500" windowWidth="36520" windowHeight="19560" activeTab="5" xr2:uid="{4E933D9A-35E3-C745-AC08-A164B8EEBD08}"/>
   </bookViews>
   <sheets>
     <sheet name="mer_datasets_id" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="399">
   <si>
     <t>MER C&amp;T</t>
   </si>
@@ -236,9 +236,6 @@
     <t>2025Q4</t>
   </si>
   <si>
-    <t>funding_mechanism</t>
-  </si>
-  <si>
     <t>excell_mapping_template_mer_ct</t>
   </si>
   <si>
@@ -1233,13 +1230,25 @@
   </si>
   <si>
     <t>MTendas</t>
+  </si>
+  <si>
+    <t>kZka73xT1AZ</t>
+  </si>
+  <si>
+    <t>funding_mechanism_maputo</t>
+  </si>
+  <si>
+    <t>funding_mechanism_gaza</t>
+  </si>
+  <si>
+    <t>Chokwe_HR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1277,6 +1286,13 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1299,7 +1315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1308,6 +1324,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1687,10 +1704,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1764,929 +1781,938 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C226DE-F020-454C-975D-64191FC04A0B}">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>398</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>212</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C45" s="3"/>
+        <v>239</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>244</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C57" s="3"/>
+        <v>263</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>268</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C61" s="3"/>
+        <v>270</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>276</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>282</v>
-      </c>
+      <c r="C65" s="8"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C66" s="3"/>
+        <v>281</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>286</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>368</v>
-      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>379</v>
+      <c r="A103" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>182</v>
+        <v>367</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>369</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>274</v>
+        <v>372</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>284</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B28 B30:B60 B62:B101">
+  <conditionalFormatting sqref="B2:B29 B31:B61 B63:B102">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B60 B1:B28 B62:B1048576">
+  <conditionalFormatting sqref="B31:B61 B1:B29 B63:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2709,10 +2735,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" t="s">
         <v>354</v>
-      </c>
-      <c r="B1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2792,10 +2818,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2883,10 +2909,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" t="s">
         <v>357</v>
-      </c>
-      <c r="B1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3038,10 +3064,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" t="s">
         <v>357</v>
-      </c>
-      <c r="B1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3115,31 +3141,39 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849AD34E-7686-0A42-93B7-B225DA2E3DAB}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>396</v>
       </c>
       <c r="B2">
         <v>160451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3">
+        <v>81776</v>
       </c>
     </row>
   </sheetData>
@@ -3163,66 +3197,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3246,66 +3280,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -3330,306 +3364,306 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/conf/paramConfig.xlsx
+++ b/conf/paramConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asamuel/Projects/ccs-datim-data-import/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D678AEAF-5F2D-D844-A937-D49332E093BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F00AAE6-74F1-F04C-AADF-339551562D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="500" windowWidth="36520" windowHeight="19520" xr2:uid="{4E933D9A-35E3-C745-AC08-A164B8EEBD08}"/>
+    <workbookView xWindow="1620" yWindow="1620" windowWidth="36400" windowHeight="17320" firstSheet="1" activeTab="10" xr2:uid="{4E933D9A-35E3-C745-AC08-A164B8EEBD08}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_datim_exchange_orgunits" sheetId="13" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="mpt_us_names_ids_dhis" sheetId="9" r:id="rId10"/>
     <sheet name="gaza_us_names_ids_dhis " sheetId="12" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ccs_datim_exchange_orgunits!$A$1:$J$205</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="1015">
   <si>
     <t>MER C&amp;T</t>
   </si>
@@ -1371,9 +1374,6 @@
     <t>b63GCYNVlXl</t>
   </si>
   <si>
-    <t>Penitenci√°ria Bilene Macia PS</t>
-  </si>
-  <si>
     <t>ZfjQmCjVKRF</t>
   </si>
   <si>
@@ -3057,9 +3057,6 @@
     <t>rVVIv9a5A8G</t>
   </si>
   <si>
-    <t>PS Penitenci√°ria da Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>CSVVXoe0xGC</t>
   </si>
   <si>
@@ -3073,13 +3070,37 @@
   </si>
   <si>
     <t>Zimilene CS</t>
+  </si>
+  <si>
+    <t>zC9IO47wIrI</t>
+  </si>
+  <si>
+    <t>p7hkw2sdXJn</t>
+  </si>
+  <si>
+    <t>FWrCIfDMUbp</t>
+  </si>
+  <si>
+    <t>Penitenciario_Xaixai</t>
+  </si>
+  <si>
+    <t>Penitenciaria Bilene Macia PS</t>
+  </si>
+  <si>
+    <t>PS Penitenciaria da Cidade de Xai-Xai</t>
+  </si>
+  <si>
+    <t>Penitenciario_Mabal</t>
+  </si>
+  <si>
+    <t>Penitenciario_Maci</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3141,8 +3162,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3167,6 +3194,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3180,7 +3213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -3202,6 +3235,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4959,8 +4994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17874D96-F061-7044-8085-2E4A0B02EA3D}">
   <dimension ref="A1:K205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G149" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5316,30 +5351,32 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C12" s="11">
-        <v>6</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="A12" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C12" s="16">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="G12" s="16" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16" t="s">
+        <v>1007</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
@@ -5358,13 +5395,13 @@
         <v>412</v>
       </c>
       <c r="F13" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>443</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>444</v>
       </c>
       <c r="I13" s="11">
         <v>1090207</v>
@@ -5390,13 +5427,13 @@
         <v>412</v>
       </c>
       <c r="F14" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>446</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>447</v>
       </c>
       <c r="I14" s="11">
         <v>1090215</v>
@@ -5419,16 +5456,16 @@
         <v>180</v>
       </c>
       <c r="E15" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>450</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>451</v>
       </c>
       <c r="I15" s="11">
         <v>1090307</v>
@@ -5451,16 +5488,16 @@
         <v>180</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>453</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>454</v>
       </c>
       <c r="I16" s="11">
         <v>1090304</v>
@@ -5483,16 +5520,16 @@
         <v>180</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>456</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>457</v>
       </c>
       <c r="I17" s="11">
         <v>1090312</v>
@@ -5515,16 +5552,16 @@
         <v>180</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F18" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>459</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>460</v>
       </c>
       <c r="I18" s="11">
         <v>1090317</v>
@@ -5547,16 +5584,16 @@
         <v>180</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F19" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>462</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>463</v>
       </c>
       <c r="I19" s="11">
         <v>1090306</v>
@@ -5580,16 +5617,16 @@
         <v>180</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F20" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>465</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>466</v>
       </c>
       <c r="I20" s="11">
         <v>1090313</v>
@@ -5612,16 +5649,16 @@
         <v>180</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F21" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>468</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>469</v>
       </c>
       <c r="I21" s="11">
         <v>1090308</v>
@@ -5644,16 +5681,16 @@
         <v>180</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F22" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>471</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>472</v>
       </c>
       <c r="I22" s="11">
         <v>1090305</v>
@@ -5676,13 +5713,13 @@
         <v>180</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F23" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>473</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>474</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11">
@@ -5704,13 +5741,13 @@
         <v>180</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F24" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>475</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>476</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11">
@@ -5732,13 +5769,13 @@
         <v>180</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F25" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>477</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>478</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11">
@@ -5760,16 +5797,16 @@
         <v>180</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F26" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="H26" s="11" t="s">
         <v>480</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>481</v>
       </c>
       <c r="I26" s="11">
         <v>1090311</v>
@@ -5792,16 +5829,16 @@
         <v>180</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F27" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>483</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>484</v>
       </c>
       <c r="I27" s="11">
         <v>1090309</v>
@@ -5824,16 +5861,16 @@
         <v>180</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F28" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="H28" s="11" t="s">
         <v>486</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>487</v>
       </c>
       <c r="I28" s="11">
         <v>1090302</v>
@@ -5856,16 +5893,16 @@
         <v>180</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F29" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>489</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>490</v>
       </c>
       <c r="I29" s="11">
         <v>1090318</v>
@@ -5888,16 +5925,16 @@
         <v>180</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F30" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="H30" s="11" t="s">
         <v>492</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>493</v>
       </c>
       <c r="I30" s="11">
         <v>1090315</v>
@@ -5920,16 +5957,16 @@
         <v>180</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F31" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>495</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>496</v>
       </c>
       <c r="I31" s="11">
         <v>1090310</v>
@@ -5952,13 +5989,13 @@
         <v>180</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F32" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>497</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>498</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11">
@@ -5980,16 +6017,16 @@
         <v>180</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F33" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="H33" s="11" t="s">
         <v>500</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>501</v>
       </c>
       <c r="I33" s="11">
         <v>1090314</v>
@@ -6012,16 +6049,16 @@
         <v>180</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F34" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="H34" s="11" t="s">
         <v>503</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>504</v>
       </c>
       <c r="I34" s="11">
         <v>1090303</v>
@@ -6041,19 +6078,19 @@
         <v>6</v>
       </c>
       <c r="D35" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="F35" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="G35" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>508</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>509</v>
       </c>
       <c r="I35" s="11">
         <v>1090605</v>
@@ -6073,19 +6110,19 @@
         <v>6</v>
       </c>
       <c r="D36" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F36" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="H36" s="11" t="s">
         <v>511</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>512</v>
       </c>
       <c r="I36" s="11">
         <v>1090624</v>
@@ -6103,19 +6140,19 @@
         <v>6</v>
       </c>
       <c r="D37" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E37" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F37" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="H37" s="11" t="s">
         <v>514</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>515</v>
       </c>
       <c r="I37" s="11">
         <v>1090608</v>
@@ -6133,19 +6170,19 @@
         <v>6</v>
       </c>
       <c r="D38" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F38" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="H38" s="11" t="s">
         <v>517</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>518</v>
       </c>
       <c r="I38" s="11">
         <v>1090603</v>
@@ -6165,19 +6202,19 @@
         <v>6</v>
       </c>
       <c r="D39" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F39" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="H39" s="11" t="s">
         <v>520</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>521</v>
       </c>
       <c r="I39" s="11">
         <v>1090615</v>
@@ -6197,19 +6234,19 @@
         <v>6</v>
       </c>
       <c r="D40" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F40" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>523</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>524</v>
       </c>
       <c r="I40" s="11">
         <v>1090618</v>
@@ -6229,16 +6266,16 @@
         <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F41" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>525</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>526</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11">
@@ -6257,19 +6294,19 @@
         <v>6</v>
       </c>
       <c r="D42" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F42" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="H42" s="11" t="s">
         <v>528</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>529</v>
       </c>
       <c r="I42" s="11">
         <v>1090602</v>
@@ -6287,19 +6324,19 @@
         <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F43" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="G43" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="H43" s="11" t="s">
         <v>531</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>532</v>
       </c>
       <c r="I43" s="11">
         <v>1090606</v>
@@ -6319,19 +6356,19 @@
         <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F44" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="H44" s="11" t="s">
         <v>534</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>535</v>
       </c>
       <c r="I44" s="11">
         <v>1090600</v>
@@ -6352,19 +6389,19 @@
         <v>6</v>
       </c>
       <c r="D45" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F45" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="G45" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="H45" s="11" t="s">
         <v>537</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>538</v>
       </c>
       <c r="I45" s="11">
         <v>1090617</v>
@@ -6384,19 +6421,19 @@
         <v>6</v>
       </c>
       <c r="D46" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F46" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="H46" s="11" t="s">
         <v>540</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>541</v>
       </c>
       <c r="I46" s="11">
         <v>1090614</v>
@@ -6416,19 +6453,19 @@
         <v>6</v>
       </c>
       <c r="D47" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F47" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="G47" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="H47" s="11" t="s">
         <v>543</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>544</v>
       </c>
       <c r="I47" s="11">
         <v>1090616</v>
@@ -6448,19 +6485,19 @@
         <v>6</v>
       </c>
       <c r="D48" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F48" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="G48" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="H48" s="11" t="s">
         <v>546</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>547</v>
       </c>
       <c r="I48" s="11">
         <v>1090620</v>
@@ -6480,19 +6517,19 @@
         <v>6</v>
       </c>
       <c r="D49" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E49" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F49" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="G49" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="H49" s="11" t="s">
         <v>549</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>550</v>
       </c>
       <c r="I49" s="11">
         <v>1090613</v>
@@ -6512,19 +6549,19 @@
         <v>6</v>
       </c>
       <c r="D50" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F50" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="H50" s="11" t="s">
         <v>552</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>553</v>
       </c>
       <c r="I50" s="11">
         <v>1090625</v>
@@ -6544,19 +6581,19 @@
         <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E51" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F51" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="G51" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="H51" s="11" t="s">
         <v>555</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>556</v>
       </c>
       <c r="I51" s="11">
         <v>1090622</v>
@@ -6576,19 +6613,19 @@
         <v>6</v>
       </c>
       <c r="D52" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F52" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="H52" s="11" t="s">
         <v>558</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>559</v>
       </c>
       <c r="I52" s="11">
         <v>1090601</v>
@@ -6608,19 +6645,19 @@
         <v>6</v>
       </c>
       <c r="D53" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E53" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F53" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="G53" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="H53" s="11" t="s">
         <v>561</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>562</v>
       </c>
       <c r="I53" s="11">
         <v>1090610</v>
@@ -6640,19 +6677,19 @@
         <v>6</v>
       </c>
       <c r="D54" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E54" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F54" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="G54" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="H54" s="11" t="s">
         <v>564</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>565</v>
       </c>
       <c r="I54" s="11">
         <v>1090621</v>
@@ -6672,19 +6709,19 @@
         <v>6</v>
       </c>
       <c r="D55" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E55" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F55" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="G55" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="H55" s="11" t="s">
         <v>567</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>568</v>
       </c>
       <c r="I55" s="11">
         <v>1090609</v>
@@ -6704,16 +6741,16 @@
         <v>6</v>
       </c>
       <c r="D56" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F56" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="G56" s="11" t="s">
         <v>569</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>570</v>
       </c>
       <c r="H56" s="11"/>
       <c r="I56" s="11">
@@ -6732,19 +6769,19 @@
         <v>6</v>
       </c>
       <c r="D57" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E57" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F57" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="G57" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="H57" s="11" t="s">
         <v>572</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>573</v>
       </c>
       <c r="I57" s="11">
         <v>1090612</v>
@@ -6762,16 +6799,16 @@
         <v>6</v>
       </c>
       <c r="D58" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E58" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F58" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="G58" s="11" t="s">
         <v>574</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>575</v>
       </c>
       <c r="H58" s="11"/>
       <c r="I58" s="11">
@@ -6790,19 +6827,19 @@
         <v>6</v>
       </c>
       <c r="D59" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F59" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="G59" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="H59" s="11" t="s">
         <v>577</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>578</v>
       </c>
       <c r="I59" s="11">
         <v>1090611</v>
@@ -6822,19 +6859,19 @@
         <v>6</v>
       </c>
       <c r="D60" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E60" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F60" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="G60" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="H60" s="11" t="s">
         <v>580</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="I60" s="11">
         <v>1090619</v>
@@ -6854,19 +6891,19 @@
         <v>6</v>
       </c>
       <c r="D61" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="E61" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F61" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="G61" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="H61" s="11" t="s">
         <v>583</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>584</v>
       </c>
       <c r="I61" s="11">
         <v>1090607</v>
@@ -6886,19 +6923,19 @@
         <v>6</v>
       </c>
       <c r="D62" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="F62" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="G62" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="H62" s="11" t="s">
         <v>588</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>589</v>
       </c>
       <c r="I62" s="11">
         <v>1091206</v>
@@ -6918,19 +6955,19 @@
         <v>6</v>
       </c>
       <c r="D63" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="E63" s="11" t="s">
-        <v>586</v>
-      </c>
       <c r="F63" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="G63" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="H63" s="11" t="s">
         <v>591</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>592</v>
       </c>
       <c r="I63" s="11">
         <v>1091217</v>
@@ -6950,16 +6987,16 @@
         <v>6</v>
       </c>
       <c r="D64" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E64" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="E64" s="11" t="s">
-        <v>586</v>
-      </c>
       <c r="F64" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="G64" s="11" t="s">
         <v>593</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>594</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="11">
@@ -6980,19 +7017,19 @@
         <v>6</v>
       </c>
       <c r="D65" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="E65" s="11" t="s">
-        <v>586</v>
-      </c>
       <c r="F65" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="G65" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="H65" s="11" t="s">
         <v>596</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>597</v>
       </c>
       <c r="I65" s="11">
         <v>1091209</v>
@@ -7012,16 +7049,16 @@
         <v>6</v>
       </c>
       <c r="D66" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E66" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="E66" s="11" t="s">
-        <v>586</v>
-      </c>
       <c r="F66" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="G66" s="11" t="s">
         <v>598</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>599</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11">
@@ -7042,16 +7079,16 @@
         <v>6</v>
       </c>
       <c r="D67" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E67" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="E67" s="11" t="s">
-        <v>586</v>
-      </c>
       <c r="F67" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="G67" s="11" t="s">
         <v>600</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>601</v>
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="11">
@@ -7070,19 +7107,19 @@
         <v>6</v>
       </c>
       <c r="D68" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E68" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="E68" s="11" t="s">
-        <v>586</v>
-      </c>
       <c r="F68" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="G68" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="H68" s="11" t="s">
         <v>603</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>604</v>
       </c>
       <c r="I68" s="11">
         <v>1091212</v>
@@ -7102,16 +7139,16 @@
         <v>6</v>
       </c>
       <c r="D69" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E69" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="E69" s="11" t="s">
-        <v>586</v>
-      </c>
       <c r="F69" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="G69" s="11" t="s">
         <v>605</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>606</v>
       </c>
       <c r="H69" s="11"/>
       <c r="I69" s="11">
@@ -7132,16 +7169,16 @@
         <v>6</v>
       </c>
       <c r="D70" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="E70" s="11" t="s">
-        <v>586</v>
-      </c>
       <c r="F70" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="G70" s="11" t="s">
         <v>607</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>608</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="11">
@@ -7162,19 +7199,19 @@
         <v>6</v>
       </c>
       <c r="D71" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E71" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="E71" s="11" t="s">
-        <v>586</v>
-      </c>
       <c r="F71" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="G71" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="G71" s="11" t="s">
+      <c r="H71" s="11" t="s">
         <v>610</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>611</v>
       </c>
       <c r="I71" s="11">
         <v>1090904</v>
@@ -7194,16 +7231,16 @@
         <v>6</v>
       </c>
       <c r="D72" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="E72" s="11" t="s">
-        <v>586</v>
-      </c>
       <c r="F72" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="G72" s="11" t="s">
         <v>612</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>613</v>
       </c>
       <c r="H72" s="11"/>
       <c r="I72" s="11">
@@ -7224,19 +7261,19 @@
         <v>6</v>
       </c>
       <c r="D73" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="E73" s="11" t="s">
-        <v>586</v>
-      </c>
       <c r="F73" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="G73" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="G73" s="11" t="s">
+      <c r="H73" s="11" t="s">
         <v>615</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>616</v>
       </c>
       <c r="I73" s="11">
         <v>1091210</v>
@@ -7256,19 +7293,19 @@
         <v>6</v>
       </c>
       <c r="D74" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="E74" s="11" t="s">
-        <v>586</v>
-      </c>
       <c r="F74" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="G74" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="G74" s="11" t="s">
+      <c r="H74" s="11" t="s">
         <v>618</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>619</v>
       </c>
       <c r="I74" s="11">
         <v>1091216</v>
@@ -7288,19 +7325,19 @@
         <v>6</v>
       </c>
       <c r="D75" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="E75" s="11" t="s">
-        <v>586</v>
-      </c>
       <c r="F75" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="G75" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="G75" s="11" t="s">
+      <c r="H75" s="11" t="s">
         <v>621</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>622</v>
       </c>
       <c r="I75" s="11">
         <v>1091213</v>
@@ -7320,19 +7357,19 @@
         <v>5</v>
       </c>
       <c r="D76" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="E76" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="F76" s="13" t="s">
         <v>624</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>625</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>124</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I76" s="13"/>
       <c r="J76" s="13" t="s">
@@ -7350,22 +7387,22 @@
         <v>5</v>
       </c>
       <c r="D77" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="E77" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="E77" s="13" t="s">
-        <v>624</v>
-      </c>
       <c r="F77" s="13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>125</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J77" s="13" t="s">
         <v>149</v>
@@ -7382,19 +7419,19 @@
         <v>5</v>
       </c>
       <c r="D78" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="E78" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="E78" s="13" t="s">
-        <v>624</v>
-      </c>
       <c r="F78" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G78" s="13" t="s">
         <v>126</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I78" s="13"/>
       <c r="J78" s="13" t="s">
@@ -7412,19 +7449,19 @@
         <v>5</v>
       </c>
       <c r="D79" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="E79" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="E79" s="13" t="s">
-        <v>624</v>
-      </c>
       <c r="F79" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G79" s="13" t="s">
         <v>128</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I79" s="13"/>
       <c r="J79" s="13" t="s">
@@ -7442,19 +7479,19 @@
         <v>5</v>
       </c>
       <c r="D80" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="E80" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="E80" s="13" t="s">
-        <v>624</v>
-      </c>
       <c r="F80" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G80" s="13" t="s">
         <v>134</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I80" s="13"/>
       <c r="J80" s="13" t="s">
@@ -7472,19 +7509,19 @@
         <v>5</v>
       </c>
       <c r="D81" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="E81" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="E81" s="13" t="s">
-        <v>624</v>
-      </c>
       <c r="F81" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>130</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I81" s="13"/>
       <c r="J81" s="13" t="s">
@@ -7502,19 +7539,19 @@
         <v>5</v>
       </c>
       <c r="D82" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="E82" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="E82" s="13" t="s">
-        <v>624</v>
-      </c>
       <c r="F82" s="13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>132</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I82" s="13"/>
       <c r="J82" s="13" t="s">
@@ -7532,10 +7569,10 @@
         <v>5</v>
       </c>
       <c r="D83" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E83" s="11" t="s">
         <v>639</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>640</v>
       </c>
       <c r="F83" s="11" t="s">
         <v>412</v>
@@ -7544,7 +7581,7 @@
         <v>411</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I83" s="11" t="s">
         <v>412</v>
@@ -7564,19 +7601,19 @@
         <v>5</v>
       </c>
       <c r="D84" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="E84" s="11" t="s">
-        <v>640</v>
-      </c>
       <c r="F84" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G84" s="11" t="s">
         <v>180</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I84" s="11"/>
       <c r="J84" s="12" t="s">
@@ -7594,19 +7631,19 @@
         <v>5</v>
       </c>
       <c r="D85" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E85" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="E85" s="11" t="s">
-        <v>640</v>
-      </c>
       <c r="F85" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="G85" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="G85" s="11" t="s">
+      <c r="H85" s="11" t="s">
         <v>644</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>645</v>
       </c>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
@@ -7622,19 +7659,19 @@
         <v>5</v>
       </c>
       <c r="D86" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E86" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="E86" s="11" t="s">
-        <v>640</v>
-      </c>
       <c r="F86" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="G86" s="11" t="s">
         <v>646</v>
       </c>
-      <c r="G86" s="11" t="s">
+      <c r="H86" s="11" t="s">
         <v>647</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>648</v>
       </c>
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
@@ -7650,19 +7687,19 @@
         <v>5</v>
       </c>
       <c r="D87" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E87" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="E87" s="11" t="s">
-        <v>640</v>
-      </c>
       <c r="F87" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I87" s="11"/>
       <c r="J87" s="12" t="s">
@@ -7680,16 +7717,16 @@
         <v>5</v>
       </c>
       <c r="D88" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E88" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="E88" s="11" t="s">
-        <v>640</v>
-      </c>
       <c r="F88" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
@@ -7708,19 +7745,19 @@
         <v>5</v>
       </c>
       <c r="D89" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E89" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="E89" s="11" t="s">
-        <v>640</v>
-      </c>
       <c r="F89" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I89" s="11"/>
       <c r="J89" s="12" t="s">
@@ -7738,16 +7775,16 @@
         <v>5</v>
       </c>
       <c r="D90" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E90" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="E90" s="11" t="s">
-        <v>640</v>
-      </c>
       <c r="F90" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="G90" s="11" t="s">
         <v>652</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>653</v>
       </c>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
@@ -7766,19 +7803,19 @@
         <v>5</v>
       </c>
       <c r="D91" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E91" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="E91" s="11" t="s">
-        <v>640</v>
-      </c>
       <c r="F91" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>240</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I91" s="11"/>
       <c r="J91" s="11" t="s">
@@ -7797,19 +7834,19 @@
         <v>5</v>
       </c>
       <c r="D92" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E92" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="E92" s="11" t="s">
-        <v>640</v>
-      </c>
       <c r="F92" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="G92" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="G92" s="11" t="s">
+      <c r="H92" s="11" t="s">
         <v>659</v>
-      </c>
-      <c r="H92" s="11" t="s">
-        <v>660</v>
       </c>
       <c r="I92" s="11"/>
       <c r="J92" s="12" t="s">
@@ -7827,13 +7864,13 @@
         <v>5</v>
       </c>
       <c r="D93" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E93" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="E93" s="11" t="s">
-        <v>640</v>
-      </c>
       <c r="F93" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>272</v>
@@ -7855,19 +7892,19 @@
         <v>5</v>
       </c>
       <c r="D94" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E94" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="E94" s="11" t="s">
-        <v>640</v>
-      </c>
       <c r="F94" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="G94" s="11" t="s">
         <v>662</v>
       </c>
-      <c r="G94" s="11" t="s">
+      <c r="H94" s="11" t="s">
         <v>663</v>
-      </c>
-      <c r="H94" s="11" t="s">
-        <v>664</v>
       </c>
       <c r="I94" s="11"/>
       <c r="J94" s="11"/>
@@ -7883,19 +7920,19 @@
         <v>5</v>
       </c>
       <c r="D95" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E95" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="E95" s="11" t="s">
-        <v>640</v>
-      </c>
       <c r="F95" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>282</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I95" s="11"/>
       <c r="J95" s="12" t="s">
@@ -7913,19 +7950,19 @@
         <v>5</v>
       </c>
       <c r="D96" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E96" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="E96" s="11" t="s">
-        <v>640</v>
-      </c>
       <c r="F96" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="G96" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="G96" s="11" t="s">
+      <c r="H96" s="11" t="s">
         <v>668</v>
-      </c>
-      <c r="H96" s="11" t="s">
-        <v>669</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="12" t="s">
@@ -7946,16 +7983,16 @@
         <v>222</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F97" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="G97" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="G97" s="11" t="s">
+      <c r="H97" s="11" t="s">
         <v>671</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>672</v>
       </c>
       <c r="I97" s="11">
         <v>1090715</v>
@@ -7978,16 +8015,16 @@
         <v>222</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F98" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="G98" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="G98" s="11" t="s">
+      <c r="H98" s="11" t="s">
         <v>674</v>
-      </c>
-      <c r="H98" s="11" t="s">
-        <v>675</v>
       </c>
       <c r="I98" s="11">
         <v>1090709</v>
@@ -8010,16 +8047,16 @@
         <v>222</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F99" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="G99" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="G99" s="11" t="s">
+      <c r="H99" s="11" t="s">
         <v>677</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>678</v>
       </c>
       <c r="I99" s="11">
         <v>1090710</v>
@@ -8042,16 +8079,16 @@
         <v>222</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F100" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="G100" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="G100" s="11" t="s">
+      <c r="H100" s="11" t="s">
         <v>680</v>
-      </c>
-      <c r="H100" s="11" t="s">
-        <v>681</v>
       </c>
       <c r="I100" s="11">
         <v>1090711</v>
@@ -8074,13 +8111,13 @@
         <v>222</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F101" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="G101" s="11" t="s">
         <v>682</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>683</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" s="11">
@@ -8102,16 +8139,16 @@
         <v>222</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F102" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="G102" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="G102" s="11" t="s">
+      <c r="H102" s="11" t="s">
         <v>685</v>
-      </c>
-      <c r="H102" s="11" t="s">
-        <v>686</v>
       </c>
       <c r="I102" s="11">
         <v>1090706</v>
@@ -8134,13 +8171,13 @@
         <v>222</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F103" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="G103" s="11" t="s">
         <v>687</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>688</v>
       </c>
       <c r="H103" s="11"/>
       <c r="I103" s="11">
@@ -8164,16 +8201,16 @@
         <v>222</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F104" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="G104" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="G104" s="11" t="s">
+      <c r="H104" s="11" t="s">
         <v>690</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>691</v>
       </c>
       <c r="I104" s="11">
         <v>1090701</v>
@@ -8196,16 +8233,16 @@
         <v>222</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F105" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="G105" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="G105" s="11" t="s">
+      <c r="H105" s="11" t="s">
         <v>693</v>
-      </c>
-      <c r="H105" s="11" t="s">
-        <v>694</v>
       </c>
       <c r="I105" s="11">
         <v>1090712</v>
@@ -8228,16 +8265,16 @@
         <v>222</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F106" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="G106" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="G106" s="11" t="s">
+      <c r="H106" s="11" t="s">
         <v>696</v>
-      </c>
-      <c r="H106" s="11" t="s">
-        <v>697</v>
       </c>
       <c r="I106" s="11">
         <v>1090713</v>
@@ -8260,16 +8297,16 @@
         <v>222</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F107" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="G107" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="G107" s="11" t="s">
+      <c r="H107" s="11" t="s">
         <v>699</v>
-      </c>
-      <c r="H107" s="11" t="s">
-        <v>700</v>
       </c>
       <c r="I107" s="11">
         <v>1090707</v>
@@ -8292,13 +8329,13 @@
         <v>222</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F108" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="G108" s="11" t="s">
         <v>701</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>702</v>
       </c>
       <c r="H108" s="11"/>
       <c r="I108" s="11">
@@ -8320,19 +8357,19 @@
         <v>124</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F109" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="G109" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="G109" s="13" t="s">
+      <c r="H109" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="H109" s="13" t="s">
+      <c r="I109" s="13" t="s">
         <v>705</v>
-      </c>
-      <c r="I109" s="13" t="s">
-        <v>706</v>
       </c>
       <c r="J109" s="13" t="s">
         <v>84</v>
@@ -8352,19 +8389,19 @@
         <v>124</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F110" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="G110" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="G110" s="13" t="s">
+      <c r="H110" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="H110" s="13" t="s">
+      <c r="I110" s="13" t="s">
         <v>709</v>
-      </c>
-      <c r="I110" s="13" t="s">
-        <v>710</v>
       </c>
       <c r="J110" s="13" t="s">
         <v>85</v>
@@ -8384,17 +8421,17 @@
         <v>124</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F111" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="G111" s="13" t="s">
         <v>711</v>
-      </c>
-      <c r="G111" s="13" t="s">
-        <v>712</v>
       </c>
       <c r="H111" s="13"/>
       <c r="I111" s="13" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J111" s="13"/>
     </row>
@@ -8412,22 +8449,22 @@
         <v>124</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F112" s="13" t="s">
+        <v>713</v>
+      </c>
+      <c r="G112" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="G112" s="13" t="s">
+      <c r="H112" s="13" t="s">
         <v>715</v>
       </c>
-      <c r="H112" s="13" t="s">
+      <c r="I112" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="I112" s="13" t="s">
+      <c r="J112" s="13" t="s">
         <v>717</v>
-      </c>
-      <c r="J112" s="13" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
@@ -8444,19 +8481,19 @@
         <v>124</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F113" s="13" t="s">
+        <v>718</v>
+      </c>
+      <c r="G113" s="13" t="s">
         <v>719</v>
       </c>
-      <c r="G113" s="13" t="s">
+      <c r="H113" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="H113" s="13" t="s">
+      <c r="I113" s="13" t="s">
         <v>721</v>
-      </c>
-      <c r="I113" s="13" t="s">
-        <v>722</v>
       </c>
       <c r="J113" s="13" t="s">
         <v>87</v>
@@ -8476,19 +8513,19 @@
         <v>124</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F114" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="G114" s="13" t="s">
         <v>723</v>
       </c>
-      <c r="G114" s="13" t="s">
+      <c r="H114" s="13" t="s">
         <v>724</v>
       </c>
-      <c r="H114" s="13" t="s">
+      <c r="I114" s="13" t="s">
         <v>725</v>
-      </c>
-      <c r="I114" s="13" t="s">
-        <v>726</v>
       </c>
       <c r="J114" s="13" t="s">
         <v>89</v>
@@ -8508,19 +8545,19 @@
         <v>124</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F115" s="13" t="s">
+        <v>726</v>
+      </c>
+      <c r="G115" s="13" t="s">
         <v>727</v>
       </c>
-      <c r="G115" s="13" t="s">
+      <c r="H115" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="H115" s="13" t="s">
+      <c r="I115" s="13" t="s">
         <v>729</v>
-      </c>
-      <c r="I115" s="13" t="s">
-        <v>730</v>
       </c>
       <c r="J115" s="13" t="s">
         <v>153</v>
@@ -8540,22 +8577,22 @@
         <v>124</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F116" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="G116" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="G116" s="13" t="s">
+      <c r="H116" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="H116" s="13" t="s">
+      <c r="I116" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="I116" s="13" t="s">
+      <c r="J116" s="13" t="s">
         <v>734</v>
-      </c>
-      <c r="J116" s="13" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -8572,19 +8609,19 @@
         <v>125</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F117" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="G117" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="G117" s="13" t="s">
+      <c r="H117" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="H117" s="13" t="s">
+      <c r="I117" s="13" t="s">
         <v>738</v>
-      </c>
-      <c r="I117" s="13" t="s">
-        <v>739</v>
       </c>
       <c r="J117" s="13" t="s">
         <v>92</v>
@@ -8604,17 +8641,17 @@
         <v>125</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F118" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="G118" s="13" t="s">
         <v>740</v>
-      </c>
-      <c r="G118" s="13" t="s">
-        <v>741</v>
       </c>
       <c r="H118" s="13"/>
       <c r="I118" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J118" s="13" t="s">
         <v>93</v>
@@ -8634,19 +8671,19 @@
         <v>126</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F119" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="G119" s="13" t="s">
         <v>743</v>
       </c>
-      <c r="G119" s="13" t="s">
+      <c r="H119" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="H119" s="13" t="s">
+      <c r="I119" s="13" t="s">
         <v>745</v>
-      </c>
-      <c r="I119" s="13" t="s">
-        <v>746</v>
       </c>
       <c r="J119" s="13" t="s">
         <v>95</v>
@@ -8666,19 +8703,19 @@
         <v>126</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F120" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="G120" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="G120" s="13" t="s">
+      <c r="H120" s="13" t="s">
         <v>748</v>
       </c>
-      <c r="H120" s="13" t="s">
+      <c r="I120" s="13" t="s">
         <v>749</v>
-      </c>
-      <c r="I120" s="13" t="s">
-        <v>750</v>
       </c>
       <c r="J120" s="13" t="s">
         <v>98</v>
@@ -8698,19 +8735,19 @@
         <v>126</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F121" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="G121" s="13" t="s">
         <v>751</v>
       </c>
-      <c r="G121" s="13" t="s">
+      <c r="H121" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="H121" s="13" t="s">
+      <c r="I121" s="13" t="s">
         <v>753</v>
-      </c>
-      <c r="I121" s="13" t="s">
-        <v>754</v>
       </c>
       <c r="J121" s="13" t="s">
         <v>97</v>
@@ -8730,19 +8767,19 @@
         <v>126</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F122" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="G122" s="13" t="s">
         <v>755</v>
       </c>
-      <c r="G122" s="13" t="s">
+      <c r="H122" s="13" t="s">
         <v>756</v>
       </c>
-      <c r="H122" s="13" t="s">
+      <c r="I122" s="13" t="s">
         <v>757</v>
-      </c>
-      <c r="I122" s="13" t="s">
-        <v>758</v>
       </c>
       <c r="J122" s="13" t="s">
         <v>99</v>
@@ -8762,19 +8799,19 @@
         <v>126</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F123" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="G123" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="G123" s="13" t="s">
+      <c r="H123" s="13" t="s">
         <v>760</v>
       </c>
-      <c r="H123" s="13" t="s">
+      <c r="I123" s="13" t="s">
         <v>761</v>
-      </c>
-      <c r="I123" s="13" t="s">
-        <v>762</v>
       </c>
       <c r="J123" s="13" t="s">
         <v>100</v>
@@ -8794,19 +8831,19 @@
         <v>126</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F124" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="G124" s="13" t="s">
         <v>763</v>
       </c>
-      <c r="G124" s="13" t="s">
+      <c r="H124" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="H124" s="13" t="s">
+      <c r="I124" s="13" t="s">
         <v>765</v>
-      </c>
-      <c r="I124" s="13" t="s">
-        <v>766</v>
       </c>
       <c r="J124" s="13" t="s">
         <v>102</v>
@@ -8826,17 +8863,17 @@
         <v>126</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F125" s="13" t="s">
+        <v>766</v>
+      </c>
+      <c r="G125" s="13" t="s">
         <v>767</v>
-      </c>
-      <c r="G125" s="13" t="s">
-        <v>768</v>
       </c>
       <c r="H125" s="13"/>
       <c r="I125" s="13" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J125" s="13" t="s">
         <v>152</v>
@@ -8856,19 +8893,19 @@
         <v>128</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F126" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="G126" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="G126" s="13" t="s">
+      <c r="H126" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="H126" s="13" t="s">
+      <c r="I126" s="13" t="s">
         <v>772</v>
-      </c>
-      <c r="I126" s="13" t="s">
-        <v>773</v>
       </c>
       <c r="J126" s="13" t="s">
         <v>104</v>
@@ -8888,22 +8925,22 @@
         <v>128</v>
       </c>
       <c r="E127" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F127" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="G127" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="G127" s="13" t="s">
+      <c r="H127" s="13" t="s">
         <v>775</v>
       </c>
-      <c r="H127" s="13" t="s">
+      <c r="I127" s="13" t="s">
         <v>776</v>
       </c>
-      <c r="I127" s="13" t="s">
+      <c r="J127" s="13" t="s">
         <v>777</v>
-      </c>
-      <c r="J127" s="13" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
@@ -8920,19 +8957,19 @@
         <v>128</v>
       </c>
       <c r="E128" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F128" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="G128" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="G128" s="13" t="s">
+      <c r="H128" s="13" t="s">
         <v>780</v>
       </c>
-      <c r="H128" s="13" t="s">
+      <c r="I128" s="13" t="s">
         <v>781</v>
-      </c>
-      <c r="I128" s="13" t="s">
-        <v>782</v>
       </c>
       <c r="J128" s="13" t="s">
         <v>107</v>
@@ -8952,17 +8989,17 @@
         <v>128</v>
       </c>
       <c r="E129" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F129" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="G129" s="13" t="s">
         <v>783</v>
-      </c>
-      <c r="G129" s="13" t="s">
-        <v>784</v>
       </c>
       <c r="H129" s="13"/>
       <c r="I129" s="13" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J129" s="13"/>
     </row>
@@ -8980,19 +9017,19 @@
         <v>128</v>
       </c>
       <c r="E130" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F130" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="G130" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="G130" s="13" t="s">
+      <c r="H130" s="13" t="s">
         <v>787</v>
       </c>
-      <c r="H130" s="13" t="s">
+      <c r="I130" s="13" t="s">
         <v>788</v>
-      </c>
-      <c r="I130" s="13" t="s">
-        <v>789</v>
       </c>
       <c r="J130" s="13" t="s">
         <v>109</v>
@@ -9012,19 +9049,19 @@
         <v>128</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F131" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="G131" s="13" t="s">
         <v>790</v>
       </c>
-      <c r="G131" s="13" t="s">
+      <c r="H131" s="13" t="s">
         <v>791</v>
       </c>
-      <c r="H131" s="13" t="s">
+      <c r="I131" s="13" t="s">
         <v>792</v>
-      </c>
-      <c r="I131" s="13" t="s">
-        <v>793</v>
       </c>
       <c r="J131" s="13" t="s">
         <v>151</v>
@@ -9044,19 +9081,19 @@
         <v>128</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F132" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="G132" s="13" t="s">
         <v>794</v>
       </c>
-      <c r="G132" s="13" t="s">
+      <c r="H132" s="13" t="s">
         <v>795</v>
       </c>
-      <c r="H132" s="13" t="s">
+      <c r="I132" s="13" t="s">
         <v>796</v>
-      </c>
-      <c r="I132" s="13" t="s">
-        <v>797</v>
       </c>
       <c r="J132" s="13" t="s">
         <v>111</v>
@@ -9076,19 +9113,19 @@
         <v>130</v>
       </c>
       <c r="E133" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F133" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G133" s="13" t="s">
         <v>798</v>
       </c>
-      <c r="G133" s="13" t="s">
+      <c r="H133" s="13" t="s">
         <v>799</v>
       </c>
-      <c r="H133" s="13" t="s">
+      <c r="I133" s="13" t="s">
         <v>800</v>
-      </c>
-      <c r="I133" s="13" t="s">
-        <v>801</v>
       </c>
       <c r="J133" s="13" t="s">
         <v>113</v>
@@ -9108,19 +9145,19 @@
         <v>132</v>
       </c>
       <c r="E134" s="13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F134" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="G134" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="G134" s="13" t="s">
+      <c r="H134" s="13" t="s">
         <v>803</v>
       </c>
-      <c r="H134" s="13" t="s">
+      <c r="I134" s="13" t="s">
         <v>804</v>
-      </c>
-      <c r="I134" s="13" t="s">
-        <v>805</v>
       </c>
       <c r="J134" s="13" t="s">
         <v>115</v>
@@ -9140,19 +9177,19 @@
         <v>132</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F135" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="G135" s="13" t="s">
         <v>806</v>
       </c>
-      <c r="G135" s="13" t="s">
+      <c r="H135" s="13" t="s">
         <v>807</v>
       </c>
-      <c r="H135" s="13" t="s">
+      <c r="I135" s="13" t="s">
         <v>808</v>
-      </c>
-      <c r="I135" s="13" t="s">
-        <v>809</v>
       </c>
       <c r="J135" s="13" t="s">
         <v>116</v>
@@ -9169,19 +9206,19 @@
         <v>6</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F136" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="G136" s="11" t="s">
         <v>810</v>
       </c>
-      <c r="G136" s="11" t="s">
+      <c r="H136" s="11" t="s">
         <v>811</v>
-      </c>
-      <c r="H136" s="11" t="s">
-        <v>812</v>
       </c>
       <c r="I136" s="11">
         <v>1091201</v>
@@ -9201,19 +9238,19 @@
         <v>6</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F137" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="G137" s="11" t="s">
         <v>813</v>
       </c>
-      <c r="G137" s="11" t="s">
+      <c r="H137" s="11" t="s">
         <v>814</v>
-      </c>
-      <c r="H137" s="11" t="s">
-        <v>815</v>
       </c>
       <c r="I137" s="11">
         <v>1091208</v>
@@ -9233,19 +9270,19 @@
         <v>6</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F138" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="G138" s="11" t="s">
         <v>816</v>
       </c>
-      <c r="G138" s="11" t="s">
+      <c r="H138" s="11" t="s">
         <v>817</v>
-      </c>
-      <c r="H138" s="11" t="s">
-        <v>818</v>
       </c>
       <c r="I138" s="11">
         <v>1090209</v>
@@ -9265,16 +9302,16 @@
         <v>6</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F139" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="G139" s="11" t="s">
         <v>819</v>
-      </c>
-      <c r="G139" s="11" t="s">
-        <v>820</v>
       </c>
       <c r="H139" s="11"/>
       <c r="I139" s="11">
@@ -9293,16 +9330,16 @@
         <v>6</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F140" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="G140" s="11" t="s">
         <v>821</v>
-      </c>
-      <c r="G140" s="11" t="s">
-        <v>822</v>
       </c>
       <c r="H140" s="11"/>
       <c r="I140" s="11">
@@ -9321,19 +9358,19 @@
         <v>6</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F141" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="G141" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="G141" s="11" t="s">
+      <c r="H141" s="11" t="s">
         <v>824</v>
-      </c>
-      <c r="H141" s="11" t="s">
-        <v>825</v>
       </c>
       <c r="I141" s="11">
         <v>1091211</v>
@@ -9353,19 +9390,19 @@
         <v>6</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F142" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="G142" s="11" t="s">
         <v>826</v>
       </c>
-      <c r="G142" s="11" t="s">
+      <c r="H142" s="11" t="s">
         <v>827</v>
-      </c>
-      <c r="H142" s="11" t="s">
-        <v>828</v>
       </c>
       <c r="I142" s="11">
         <v>1090211</v>
@@ -9385,16 +9422,16 @@
         <v>6</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F143" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="G143" s="11" t="s">
         <v>829</v>
-      </c>
-      <c r="G143" s="11" t="s">
-        <v>830</v>
       </c>
       <c r="H143" s="11"/>
       <c r="I143" s="11">
@@ -9413,19 +9450,19 @@
         <v>6</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F144" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="G144" s="11" t="s">
         <v>831</v>
       </c>
-      <c r="G144" s="11" t="s">
+      <c r="H144" s="11" t="s">
         <v>832</v>
-      </c>
-      <c r="H144" s="11" t="s">
-        <v>833</v>
       </c>
       <c r="I144" s="11">
         <v>1091215</v>
@@ -9445,19 +9482,19 @@
         <v>6</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F145" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="G145" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="G145" s="11" t="s">
+      <c r="H145" s="11" t="s">
         <v>835</v>
-      </c>
-      <c r="H145" s="11" t="s">
-        <v>836</v>
       </c>
       <c r="I145" s="11">
         <v>1091214</v>
@@ -9480,13 +9517,13 @@
         <v>240</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F146" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="G146" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="H146" s="11"/>
       <c r="I146" s="11"/>
@@ -9506,13 +9543,13 @@
         <v>240</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F147" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="G147" s="11" t="s">
         <v>839</v>
-      </c>
-      <c r="G147" s="11" t="s">
-        <v>840</v>
       </c>
       <c r="H147" s="11"/>
       <c r="I147" s="11">
@@ -9534,16 +9571,16 @@
         <v>240</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F148" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="G148" s="11" t="s">
         <v>841</v>
       </c>
-      <c r="G148" s="11" t="s">
+      <c r="H148" s="11" t="s">
         <v>842</v>
-      </c>
-      <c r="H148" s="11" t="s">
-        <v>843</v>
       </c>
       <c r="I148" s="11">
         <v>1090807</v>
@@ -9566,13 +9603,13 @@
         <v>240</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F149" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="G149" s="11" t="s">
         <v>656</v>
-      </c>
-      <c r="G149" s="11" t="s">
-        <v>657</v>
       </c>
       <c r="H149" s="11"/>
       <c r="I149" s="11">
@@ -9596,16 +9633,16 @@
         <v>240</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F150" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="G150" s="11" t="s">
         <v>844</v>
       </c>
-      <c r="G150" s="11" t="s">
+      <c r="H150" s="11" t="s">
         <v>845</v>
-      </c>
-      <c r="H150" s="11" t="s">
-        <v>846</v>
       </c>
       <c r="I150" s="11">
         <v>1090808</v>
@@ -9626,16 +9663,16 @@
         <v>240</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F151" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="G151" s="11" t="s">
         <v>847</v>
       </c>
-      <c r="G151" s="11" t="s">
+      <c r="H151" s="11" t="s">
         <v>848</v>
-      </c>
-      <c r="H151" s="11" t="s">
-        <v>849</v>
       </c>
       <c r="I151" s="11">
         <v>1090801</v>
@@ -9656,16 +9693,16 @@
         <v>240</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F152" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="G152" s="11" t="s">
         <v>850</v>
       </c>
-      <c r="G152" s="11" t="s">
+      <c r="H152" s="11" t="s">
         <v>851</v>
-      </c>
-      <c r="H152" s="11" t="s">
-        <v>852</v>
       </c>
       <c r="I152" s="11">
         <v>1090809</v>
@@ -9686,13 +9723,13 @@
         <v>240</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F153" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="G153" s="11" t="s">
         <v>853</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>854</v>
       </c>
       <c r="H153" s="11"/>
       <c r="I153" s="11">
@@ -9714,16 +9751,16 @@
         <v>240</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F154" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="G154" s="11" t="s">
         <v>855</v>
       </c>
-      <c r="G154" s="11" t="s">
+      <c r="H154" s="11" t="s">
         <v>856</v>
-      </c>
-      <c r="H154" s="11" t="s">
-        <v>857</v>
       </c>
       <c r="I154" s="11">
         <v>1090810</v>
@@ -9744,16 +9781,16 @@
         <v>240</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F155" s="11" t="s">
+        <v>857</v>
+      </c>
+      <c r="G155" s="11" t="s">
         <v>858</v>
       </c>
-      <c r="G155" s="11" t="s">
+      <c r="H155" s="11" t="s">
         <v>859</v>
-      </c>
-      <c r="H155" s="11" t="s">
-        <v>860</v>
       </c>
       <c r="I155" s="11">
         <v>1090812</v>
@@ -9761,32 +9798,34 @@
       <c r="J155" s="11"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A156" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C156" s="11">
-        <v>6</v>
-      </c>
-      <c r="D156" s="11" t="s">
+      <c r="A156" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C156" s="16">
+        <v>6</v>
+      </c>
+      <c r="D156" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="E156" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="F156" s="11" t="s">
+      <c r="E156" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="F156" s="16" t="s">
+        <v>860</v>
+      </c>
+      <c r="G156" s="16" t="s">
         <v>861</v>
       </c>
-      <c r="G156" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="H156" s="11"/>
-      <c r="I156" s="11">
+      <c r="H156" s="16"/>
+      <c r="I156" s="16">
         <v>1090804</v>
       </c>
-      <c r="J156" s="11"/>
+      <c r="J156" s="16" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
@@ -9802,16 +9841,16 @@
         <v>240</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F157" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="G157" s="11" t="s">
         <v>863</v>
       </c>
-      <c r="G157" s="11" t="s">
+      <c r="H157" s="11" t="s">
         <v>864</v>
-      </c>
-      <c r="H157" s="11" t="s">
-        <v>865</v>
       </c>
       <c r="I157" s="11">
         <v>1090811</v>
@@ -9829,19 +9868,19 @@
         <v>6</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F158" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="G158" s="11" t="s">
         <v>866</v>
       </c>
-      <c r="G158" s="11" t="s">
+      <c r="H158" s="11" t="s">
         <v>867</v>
-      </c>
-      <c r="H158" s="11" t="s">
-        <v>868</v>
       </c>
       <c r="I158" s="11">
         <v>1090910</v>
@@ -9859,19 +9898,19 @@
         <v>6</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F159" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="G159" s="11" t="s">
         <v>869</v>
       </c>
-      <c r="G159" s="11" t="s">
+      <c r="H159" s="11" t="s">
         <v>870</v>
-      </c>
-      <c r="H159" s="11" t="s">
-        <v>871</v>
       </c>
       <c r="I159" s="11">
         <v>1090908</v>
@@ -9891,19 +9930,19 @@
         <v>6</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F160" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="G160" s="11" t="s">
         <v>872</v>
       </c>
-      <c r="G160" s="11" t="s">
+      <c r="H160" s="11" t="s">
         <v>873</v>
-      </c>
-      <c r="H160" s="11" t="s">
-        <v>874</v>
       </c>
       <c r="I160" s="11">
         <v>1090911</v>
@@ -9923,19 +9962,19 @@
         <v>6</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F161" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="G161" s="11" t="s">
         <v>875</v>
       </c>
-      <c r="G161" s="11" t="s">
+      <c r="H161" s="11" t="s">
         <v>876</v>
-      </c>
-      <c r="H161" s="11" t="s">
-        <v>877</v>
       </c>
       <c r="I161" s="11">
         <v>1090906</v>
@@ -9955,19 +9994,19 @@
         <v>6</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F162" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="G162" s="11" t="s">
         <v>878</v>
       </c>
-      <c r="G162" s="11" t="s">
+      <c r="H162" s="11" t="s">
         <v>879</v>
-      </c>
-      <c r="H162" s="11" t="s">
-        <v>880</v>
       </c>
       <c r="I162" s="11">
         <v>1090918</v>
@@ -9985,19 +10024,19 @@
         <v>6</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F163" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="G163" s="11" t="s">
         <v>881</v>
       </c>
-      <c r="G163" s="11" t="s">
+      <c r="H163" s="11" t="s">
         <v>882</v>
-      </c>
-      <c r="H163" s="11" t="s">
-        <v>883</v>
       </c>
       <c r="I163" s="11">
         <v>1090907</v>
@@ -10017,19 +10056,19 @@
         <v>6</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F164" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="G164" s="11" t="s">
         <v>884</v>
       </c>
-      <c r="G164" s="11" t="s">
+      <c r="H164" s="11" t="s">
         <v>885</v>
-      </c>
-      <c r="H164" s="11" t="s">
-        <v>886</v>
       </c>
       <c r="I164" s="11">
         <v>1090927</v>
@@ -10049,19 +10088,19 @@
         <v>6</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F165" s="11" t="s">
+        <v>886</v>
+      </c>
+      <c r="G165" s="11" t="s">
         <v>887</v>
       </c>
-      <c r="G165" s="11" t="s">
+      <c r="H165" s="11" t="s">
         <v>888</v>
-      </c>
-      <c r="H165" s="11" t="s">
-        <v>889</v>
       </c>
       <c r="I165" s="11">
         <v>1090920</v>
@@ -10081,16 +10120,16 @@
         <v>6</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F166" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="G166" s="11" t="s">
         <v>890</v>
-      </c>
-      <c r="G166" s="11" t="s">
-        <v>891</v>
       </c>
       <c r="H166" s="11"/>
       <c r="I166" s="11">
@@ -10109,19 +10148,19 @@
         <v>6</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F167" s="11" t="s">
+        <v>891</v>
+      </c>
+      <c r="G167" s="11" t="s">
         <v>892</v>
       </c>
-      <c r="G167" s="11" t="s">
+      <c r="H167" s="11" t="s">
         <v>893</v>
-      </c>
-      <c r="H167" s="11" t="s">
-        <v>894</v>
       </c>
       <c r="I167" s="11">
         <v>1090928</v>
@@ -10141,19 +10180,19 @@
         <v>6</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F168" s="11" t="s">
+        <v>894</v>
+      </c>
+      <c r="G168" s="11" t="s">
         <v>895</v>
       </c>
-      <c r="G168" s="11" t="s">
+      <c r="H168" s="11" t="s">
         <v>896</v>
-      </c>
-      <c r="H168" s="11" t="s">
-        <v>897</v>
       </c>
       <c r="I168" s="11">
         <v>1090912</v>
@@ -10173,19 +10212,19 @@
         <v>6</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F169" s="11" t="s">
+        <v>897</v>
+      </c>
+      <c r="G169" s="11" t="s">
         <v>898</v>
       </c>
-      <c r="G169" s="11" t="s">
+      <c r="H169" s="11" t="s">
         <v>899</v>
-      </c>
-      <c r="H169" s="11" t="s">
-        <v>900</v>
       </c>
       <c r="I169" s="11">
         <v>1090902</v>
@@ -10203,19 +10242,19 @@
         <v>6</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F170" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="G170" s="11" t="s">
         <v>901</v>
       </c>
-      <c r="G170" s="11" t="s">
+      <c r="H170" s="11" t="s">
         <v>902</v>
-      </c>
-      <c r="H170" s="11" t="s">
-        <v>903</v>
       </c>
       <c r="I170" s="11">
         <v>1090901</v>
@@ -10235,19 +10274,19 @@
         <v>6</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F171" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="G171" s="11" t="s">
         <v>904</v>
       </c>
-      <c r="G171" s="11" t="s">
+      <c r="H171" s="11" t="s">
         <v>905</v>
-      </c>
-      <c r="H171" s="11" t="s">
-        <v>906</v>
       </c>
       <c r="I171" s="11">
         <v>1090915</v>
@@ -10265,19 +10304,19 @@
         <v>6</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F172" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="G172" s="11" t="s">
         <v>907</v>
       </c>
-      <c r="G172" s="11" t="s">
+      <c r="H172" s="11" t="s">
         <v>908</v>
-      </c>
-      <c r="H172" s="11" t="s">
-        <v>909</v>
       </c>
       <c r="I172" s="11">
         <v>1090919</v>
@@ -10297,16 +10336,16 @@
         <v>6</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F173" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="G173" s="11" t="s">
         <v>910</v>
-      </c>
-      <c r="G173" s="11" t="s">
-        <v>911</v>
       </c>
       <c r="H173" s="11"/>
       <c r="I173" s="11">
@@ -10325,19 +10364,19 @@
         <v>6</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F174" s="11" t="s">
+        <v>911</v>
+      </c>
+      <c r="G174" s="11" t="s">
         <v>912</v>
       </c>
-      <c r="G174" s="11" t="s">
+      <c r="H174" s="11" t="s">
         <v>913</v>
-      </c>
-      <c r="H174" s="11" t="s">
-        <v>914</v>
       </c>
       <c r="I174" s="11">
         <v>1090916</v>
@@ -10357,19 +10396,19 @@
         <v>6</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F175" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="G175" s="11" t="s">
         <v>915</v>
       </c>
-      <c r="G175" s="11" t="s">
+      <c r="H175" s="11" t="s">
         <v>916</v>
-      </c>
-      <c r="H175" s="11" t="s">
-        <v>917</v>
       </c>
       <c r="I175" s="11">
         <v>1090903</v>
@@ -10389,19 +10428,19 @@
         <v>6</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F176" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="G176" s="11" t="s">
         <v>918</v>
       </c>
-      <c r="G176" s="11" t="s">
+      <c r="H176" s="11" t="s">
         <v>919</v>
-      </c>
-      <c r="H176" s="11" t="s">
-        <v>920</v>
       </c>
       <c r="I176" s="11">
         <v>1090921</v>
@@ -10424,16 +10463,16 @@
         <v>272</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F177" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="G177" s="11" t="s">
         <v>921</v>
       </c>
-      <c r="G177" s="11" t="s">
+      <c r="H177" s="11" t="s">
         <v>922</v>
-      </c>
-      <c r="H177" s="11" t="s">
-        <v>923</v>
       </c>
       <c r="I177" s="11">
         <v>1090406</v>
@@ -10454,13 +10493,13 @@
         <v>272</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F178" s="11" t="s">
+        <v>923</v>
+      </c>
+      <c r="G178" s="11" t="s">
         <v>924</v>
-      </c>
-      <c r="G178" s="11" t="s">
-        <v>925</v>
       </c>
       <c r="H178" s="11"/>
       <c r="I178" s="11">
@@ -10482,16 +10521,16 @@
         <v>272</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F179" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="G179" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="G179" s="11" t="s">
+      <c r="H179" s="11" t="s">
         <v>927</v>
-      </c>
-      <c r="H179" s="11" t="s">
-        <v>928</v>
       </c>
       <c r="I179" s="11">
         <v>1090509</v>
@@ -10512,16 +10551,16 @@
         <v>272</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F180" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="G180" s="11" t="s">
         <v>929</v>
       </c>
-      <c r="G180" s="11" t="s">
+      <c r="H180" s="11" t="s">
         <v>930</v>
-      </c>
-      <c r="H180" s="11" t="s">
-        <v>931</v>
       </c>
       <c r="I180" s="11">
         <v>1090408</v>
@@ -10544,13 +10583,13 @@
         <v>272</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F181" s="11" t="s">
+        <v>931</v>
+      </c>
+      <c r="G181" s="11" t="s">
         <v>932</v>
-      </c>
-      <c r="G181" s="11" t="s">
-        <v>933</v>
       </c>
       <c r="H181" s="11"/>
       <c r="I181" s="11">
@@ -10572,16 +10611,16 @@
         <v>272</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F182" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="G182" s="11" t="s">
         <v>934</v>
       </c>
-      <c r="G182" s="11" t="s">
+      <c r="H182" s="11" t="s">
         <v>935</v>
-      </c>
-      <c r="H182" s="11" t="s">
-        <v>936</v>
       </c>
       <c r="I182" s="11">
         <v>1090409</v>
@@ -10602,16 +10641,16 @@
         <v>272</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F183" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="G183" s="11" t="s">
         <v>937</v>
       </c>
-      <c r="G183" s="11" t="s">
+      <c r="H183" s="11" t="s">
         <v>938</v>
-      </c>
-      <c r="H183" s="11" t="s">
-        <v>939</v>
       </c>
       <c r="I183" s="11">
         <v>1090410</v>
@@ -10632,16 +10671,16 @@
         <v>282</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F184" s="11" t="s">
+        <v>939</v>
+      </c>
+      <c r="G184" s="11" t="s">
         <v>940</v>
       </c>
-      <c r="G184" s="11" t="s">
+      <c r="H184" s="11" t="s">
         <v>941</v>
-      </c>
-      <c r="H184" s="11" t="s">
-        <v>942</v>
       </c>
       <c r="I184" s="11">
         <v>1091108</v>
@@ -10662,16 +10701,16 @@
         <v>282</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F185" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="G185" s="11" t="s">
         <v>943</v>
       </c>
-      <c r="G185" s="11" t="s">
+      <c r="H185" s="11" t="s">
         <v>944</v>
-      </c>
-      <c r="H185" s="11" t="s">
-        <v>945</v>
       </c>
       <c r="I185" s="11">
         <v>1091109</v>
@@ -10692,16 +10731,16 @@
         <v>282</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F186" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G186" s="11" t="s">
         <v>946</v>
       </c>
-      <c r="G186" s="11" t="s">
+      <c r="H186" s="11" t="s">
         <v>947</v>
-      </c>
-      <c r="H186" s="11" t="s">
-        <v>948</v>
       </c>
       <c r="I186" s="11">
         <v>1091116</v>
@@ -10722,16 +10761,16 @@
         <v>282</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F187" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="G187" s="11" t="s">
         <v>949</v>
       </c>
-      <c r="G187" s="11" t="s">
+      <c r="H187" s="11" t="s">
         <v>950</v>
-      </c>
-      <c r="H187" s="11" t="s">
-        <v>951</v>
       </c>
       <c r="I187" s="11">
         <v>1091110</v>
@@ -10752,16 +10791,16 @@
         <v>282</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F188" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="G188" s="11" t="s">
         <v>952</v>
       </c>
-      <c r="G188" s="11" t="s">
+      <c r="H188" s="11" t="s">
         <v>953</v>
-      </c>
-      <c r="H188" s="11" t="s">
-        <v>954</v>
       </c>
       <c r="I188" s="11">
         <v>1091106</v>
@@ -10784,16 +10823,16 @@
         <v>282</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F189" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="G189" s="11" t="s">
         <v>955</v>
       </c>
-      <c r="G189" s="11" t="s">
+      <c r="H189" s="11" t="s">
         <v>956</v>
-      </c>
-      <c r="H189" s="11" t="s">
-        <v>957</v>
       </c>
       <c r="I189" s="11">
         <v>1091111</v>
@@ -10814,16 +10853,16 @@
         <v>282</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F190" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="G190" s="11" t="s">
         <v>958</v>
       </c>
-      <c r="G190" s="11" t="s">
+      <c r="H190" s="11" t="s">
         <v>959</v>
-      </c>
-      <c r="H190" s="11" t="s">
-        <v>960</v>
       </c>
       <c r="I190" s="11">
         <v>1091112</v>
@@ -10844,16 +10883,16 @@
         <v>282</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F191" s="11" t="s">
+        <v>960</v>
+      </c>
+      <c r="G191" s="11" t="s">
         <v>961</v>
       </c>
-      <c r="G191" s="11" t="s">
+      <c r="H191" s="11" t="s">
         <v>962</v>
-      </c>
-      <c r="H191" s="11" t="s">
-        <v>963</v>
       </c>
       <c r="I191" s="11">
         <v>1091107</v>
@@ -10874,19 +10913,19 @@
         <v>134</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F192" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="G192" s="13" t="s">
         <v>964</v>
       </c>
-      <c r="G192" s="13" t="s">
+      <c r="H192" s="13" t="s">
         <v>965</v>
       </c>
-      <c r="H192" s="13" t="s">
+      <c r="I192" s="14" t="s">
         <v>966</v>
-      </c>
-      <c r="I192" s="14" t="s">
-        <v>967</v>
       </c>
       <c r="J192" s="13" t="s">
         <v>117</v>
@@ -10906,19 +10945,19 @@
         <v>134</v>
       </c>
       <c r="E193" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F193" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="G193" s="13" t="s">
         <v>968</v>
       </c>
-      <c r="G193" s="13" t="s">
+      <c r="H193" s="13" t="s">
         <v>969</v>
       </c>
-      <c r="H193" s="13" t="s">
+      <c r="I193" s="14" t="s">
         <v>970</v>
-      </c>
-      <c r="I193" s="14" t="s">
-        <v>971</v>
       </c>
       <c r="J193" s="13" t="s">
         <v>119</v>
@@ -10938,19 +10977,19 @@
         <v>134</v>
       </c>
       <c r="E194" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F194" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="G194" s="13" t="s">
         <v>972</v>
       </c>
-      <c r="G194" s="13" t="s">
+      <c r="H194" s="13" t="s">
         <v>973</v>
       </c>
-      <c r="H194" s="13" t="s">
+      <c r="I194" s="14" t="s">
         <v>974</v>
-      </c>
-      <c r="I194" s="14" t="s">
-        <v>975</v>
       </c>
       <c r="J194" s="13" t="s">
         <v>121</v>
@@ -10970,22 +11009,22 @@
         <v>134</v>
       </c>
       <c r="E195" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F195" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="G195" s="13" t="s">
         <v>976</v>
       </c>
-      <c r="G195" s="13" t="s">
+      <c r="H195" s="13" t="s">
         <v>977</v>
       </c>
-      <c r="H195" s="13" t="s">
+      <c r="I195" s="14" t="s">
         <v>978</v>
       </c>
-      <c r="I195" s="14" t="s">
+      <c r="J195" s="13" t="s">
         <v>979</v>
-      </c>
-      <c r="J195" s="13" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
@@ -11002,19 +11041,19 @@
         <v>134</v>
       </c>
       <c r="E196" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F196" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="G196" s="13" t="s">
         <v>981</v>
       </c>
-      <c r="G196" s="13" t="s">
+      <c r="H196" s="13" t="s">
         <v>982</v>
       </c>
-      <c r="H196" s="13" t="s">
+      <c r="I196" s="14" t="s">
         <v>983</v>
-      </c>
-      <c r="I196" s="14" t="s">
-        <v>984</v>
       </c>
       <c r="J196" s="13" t="s">
         <v>123</v>
@@ -11031,16 +11070,16 @@
         <v>6</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F197" s="11" t="s">
+        <v>984</v>
+      </c>
+      <c r="G197" s="11" t="s">
         <v>985</v>
-      </c>
-      <c r="G197" s="11" t="s">
-        <v>986</v>
       </c>
       <c r="H197" s="11"/>
       <c r="I197" s="11">
@@ -11061,19 +11100,19 @@
         <v>6</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F198" s="11" t="s">
+        <v>986</v>
+      </c>
+      <c r="G198" s="11" t="s">
         <v>987</v>
       </c>
-      <c r="G198" s="11" t="s">
+      <c r="H198" s="11" t="s">
         <v>988</v>
-      </c>
-      <c r="H198" s="11" t="s">
-        <v>989</v>
       </c>
       <c r="I198" s="11">
         <v>1090107</v>
@@ -11093,19 +11132,19 @@
         <v>6</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F199" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="G199" s="11" t="s">
         <v>990</v>
       </c>
-      <c r="G199" s="11" t="s">
+      <c r="H199" s="11" t="s">
         <v>991</v>
-      </c>
-      <c r="H199" s="11" t="s">
-        <v>992</v>
       </c>
       <c r="I199" s="11">
         <v>1090106</v>
@@ -11126,19 +11165,19 @@
         <v>6</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F200" s="11" t="s">
+        <v>992</v>
+      </c>
+      <c r="G200" s="11" t="s">
         <v>993</v>
       </c>
-      <c r="G200" s="11" t="s">
+      <c r="H200" s="11" t="s">
         <v>994</v>
-      </c>
-      <c r="H200" s="11" t="s">
-        <v>995</v>
       </c>
       <c r="I200" s="11">
         <v>1090113</v>
@@ -11158,19 +11197,19 @@
         <v>6</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F201" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="G201" s="11" t="s">
         <v>996</v>
       </c>
-      <c r="G201" s="11" t="s">
+      <c r="H201" s="11" t="s">
         <v>997</v>
-      </c>
-      <c r="H201" s="11" t="s">
-        <v>998</v>
       </c>
       <c r="I201" s="11">
         <v>1090108</v>
@@ -11190,19 +11229,19 @@
         <v>6</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E202" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F202" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="G202" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="G202" s="11" t="s">
+      <c r="H202" s="11" t="s">
         <v>1000</v>
-      </c>
-      <c r="H202" s="11" t="s">
-        <v>1001</v>
       </c>
       <c r="I202" s="11">
         <v>1090109</v>
@@ -11212,32 +11251,34 @@
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A203" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B203" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C203" s="11">
-        <v>6</v>
-      </c>
-      <c r="D203" s="11" t="s">
-        <v>668</v>
-      </c>
-      <c r="E203" s="11" t="s">
+      <c r="A203" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="B203" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C203" s="16">
+        <v>6</v>
+      </c>
+      <c r="D203" s="16" t="s">
         <v>667</v>
       </c>
-      <c r="F203" s="11" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G203" s="11" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H203" s="11"/>
-      <c r="I203" s="11">
+      <c r="E203" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="F203" s="16" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G203" s="16" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H203" s="16"/>
+      <c r="I203" s="16">
         <v>1090102</v>
       </c>
-      <c r="J203" s="11"/>
+      <c r="J203" s="16" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
@@ -11250,19 +11291,19 @@
         <v>6</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F204" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G204" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H204" s="11" t="s">
         <v>1004</v>
-      </c>
-      <c r="G204" s="11" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H204" s="11" t="s">
-        <v>1006</v>
       </c>
       <c r="I204" s="11">
         <v>1090100</v>
@@ -11282,16 +11323,16 @@
         <v>6</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F205" s="11" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G205" s="11" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="H205" s="11"/>
       <c r="I205" s="11">
@@ -11302,41 +11343,42 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J205" xr:uid="{17874D96-F061-7044-8085-2E4A0B02EA3D}"/>
   <conditionalFormatting sqref="J40">
     <cfRule type="duplicateValues" dxfId="141" priority="138"/>
     <cfRule type="duplicateValues" dxfId="140" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="duplicateValues" dxfId="139" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="duplicateValues" dxfId="137" priority="134"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46:J47">
-    <cfRule type="duplicateValues" dxfId="135" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:J50">
-    <cfRule type="duplicateValues" dxfId="133" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:J53">
-    <cfRule type="duplicateValues" dxfId="131" priority="128"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54">
-    <cfRule type="duplicateValues" dxfId="129" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56:J57">
-    <cfRule type="duplicateValues" dxfId="127" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59">
-    <cfRule type="duplicateValues" dxfId="125" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61">
     <cfRule type="duplicateValues" dxfId="123" priority="120"/>
@@ -11347,20 +11389,20 @@
     <cfRule type="duplicateValues" dxfId="120" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J66">
-    <cfRule type="duplicateValues" dxfId="119" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J67:J70">
-    <cfRule type="duplicateValues" dxfId="117" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72:J75">
-    <cfRule type="duplicateValues" dxfId="115" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76">
-    <cfRule type="duplicateValues" dxfId="113" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79">
     <cfRule type="duplicateValues" dxfId="111" priority="20"/>
@@ -11375,28 +11417,28 @@
     <cfRule type="duplicateValues" dxfId="106" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J89">
-    <cfRule type="duplicateValues" dxfId="105" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J90">
-    <cfRule type="duplicateValues" dxfId="103" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91">
-    <cfRule type="duplicateValues" dxfId="101" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J95">
-    <cfRule type="duplicateValues" dxfId="99" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J98">
-    <cfRule type="duplicateValues" dxfId="97" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J99:J100">
-    <cfRule type="duplicateValues" dxfId="95" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J102">
     <cfRule type="duplicateValues" dxfId="93" priority="92"/>
@@ -11406,36 +11448,36 @@
     <cfRule type="duplicateValues" dxfId="91" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J112">
-    <cfRule type="duplicateValues" dxfId="90" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J115:J123">
-    <cfRule type="duplicateValues" dxfId="88" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124">
-    <cfRule type="duplicateValues" dxfId="86" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J126:J128">
-    <cfRule type="duplicateValues" dxfId="84" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J130">
-    <cfRule type="duplicateValues" dxfId="82" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134">
-    <cfRule type="duplicateValues" dxfId="80" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J135">
-    <cfRule type="duplicateValues" dxfId="78" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J136">
-    <cfRule type="duplicateValues" dxfId="76" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J138">
     <cfRule type="duplicateValues" dxfId="74" priority="74"/>
@@ -11450,116 +11492,116 @@
     <cfRule type="duplicateValues" dxfId="69" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J142">
-    <cfRule type="duplicateValues" dxfId="68" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144">
-    <cfRule type="duplicateValues" dxfId="66" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145:J146">
-    <cfRule type="duplicateValues" dxfId="64" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J148:J149">
-    <cfRule type="duplicateValues" dxfId="62" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J150">
-    <cfRule type="duplicateValues" dxfId="60" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J152">
-    <cfRule type="duplicateValues" dxfId="58" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J153">
-    <cfRule type="duplicateValues" dxfId="56" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J156">
-    <cfRule type="duplicateValues" dxfId="54" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J157">
-    <cfRule type="duplicateValues" dxfId="52" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J159">
-    <cfRule type="duplicateValues" dxfId="50" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J160:J161">
-    <cfRule type="duplicateValues" dxfId="48" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J164">
-    <cfRule type="duplicateValues" dxfId="46" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J165">
-    <cfRule type="duplicateValues" dxfId="44" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J168">
-    <cfRule type="duplicateValues" dxfId="42" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J169:J170">
-    <cfRule type="duplicateValues" dxfId="40" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J173">
-    <cfRule type="duplicateValues" dxfId="38" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J174">
-    <cfRule type="duplicateValues" dxfId="36" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J177">
-    <cfRule type="duplicateValues" dxfId="34" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J178">
-    <cfRule type="duplicateValues" dxfId="32" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J181">
-    <cfRule type="duplicateValues" dxfId="30" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J183">
-    <cfRule type="duplicateValues" dxfId="28" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J184">
-    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J185">
-    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J186">
-    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J187">
-    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J188">
-    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J189">
-    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J191">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J192">
     <cfRule type="duplicateValues" dxfId="12" priority="11"/>
@@ -11599,7 +11641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B07049-76C3-B148-BE3D-42ADBD1753A1}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -11920,10 +11962,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C226DE-F020-454C-975D-64191FC04A0B}">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:B46"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12756,102 +12798,126 @@
         <v>352</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>367</v>
+    <row r="103" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>181</v>
+        <v>1013</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>207</v>
+        <v>1010</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>380</v>
+      <c r="A106" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>209</v>
+        <v>367</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>368</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>369</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>370</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>273</v>
+        <v>370</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B116" s="7" t="s">
         <v>283</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B102 B104:B1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B29 B31:B61 B63:B102">
+  <conditionalFormatting sqref="B2:B29 B31:B61 B63:B102 B104:B105">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:B61 B1:B29 B63:B1048576">
+  <conditionalFormatting sqref="B31:B61 B1:B29 B63:B102 B104:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/conf/paramConfig.xlsx
+++ b/conf/paramConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asamuel/Projects/ccs-datim-data-import/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F00AAE6-74F1-F04C-AADF-339551562D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421B31C1-6F42-BF43-B4C8-A69E85B094E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1620" windowWidth="36400" windowHeight="17320" firstSheet="1" activeTab="10" xr2:uid="{4E933D9A-35E3-C745-AC08-A164B8EEBD08}"/>
+    <workbookView xWindow="6140" yWindow="2680" windowWidth="36400" windowHeight="17320" activeTab="6" xr2:uid="{4E933D9A-35E3-C745-AC08-A164B8EEBD08}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_datim_exchange_orgunits" sheetId="13" r:id="rId1"/>
@@ -11964,7 +11964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C226DE-F020-454C-975D-64191FC04A0B}">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+    <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
@@ -13439,8 +13439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849AD34E-7686-0A42-93B7-B225DA2E3DAB}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13461,7 +13461,7 @@
         <v>396</v>
       </c>
       <c r="B2">
-        <v>160451</v>
+        <v>81776</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -13474,6 +13474,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/conf/paramConfig.xlsx
+++ b/conf/paramConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asamuel/Projects/ccs-datim-data-import/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421B31C1-6F42-BF43-B4C8-A69E85B094E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD35ABA-BAC5-7144-AF47-90590D3F5B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="2680" windowWidth="36400" windowHeight="17320" activeTab="6" xr2:uid="{4E933D9A-35E3-C745-AC08-A164B8EEBD08}"/>
+    <workbookView xWindow="2360" yWindow="1200" windowWidth="36400" windowHeight="17320" xr2:uid="{4E933D9A-35E3-C745-AC08-A164B8EEBD08}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_datim_exchange_orgunits" sheetId="13" r:id="rId1"/>
@@ -1137,15 +1137,9 @@
     <t>DSD HTS TST,DSD HTS INDEX,DSD HTS SELF,DSD TB STAT</t>
   </si>
   <si>
-    <t>DSD PMTCT STAT,DSD PMTCT EID,DSD PMTCT HEI POS,DSD CXCA SCRN,DSD CXCA TX</t>
-  </si>
-  <si>
     <t>DSD PREP,DSD TB PREV,DSD GEND GBV,DSD FPINT SITE</t>
   </si>
   <si>
-    <t>LAB PTCQI,PMTCT FO</t>
-  </si>
-  <si>
     <t>IM_ER,MDS</t>
   </si>
   <si>
@@ -3094,6 +3088,12 @@
   </si>
   <si>
     <t>Penitenciario_Maci</t>
+  </si>
+  <si>
+    <t>LAB PTCQI</t>
+  </si>
+  <si>
+    <t>DSD PMTCT STAT,DSD PMTCT EID,DSD PMTCT HEI POS,DSD CXCA SCRN,DSD CXCA TX,DSD PMTCT FO</t>
   </si>
 </sst>
 </file>
@@ -4994,7 +4994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17874D96-F061-7044-8085-2E4A0B02EA3D}">
   <dimension ref="A1:K205"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -5012,57 +5012,57 @@
   <sheetData>
     <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>406</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="11">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="C2" s="11">
-        <v>6</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>412</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>414</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -5072,25 +5072,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" s="11">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="C3" s="11">
-        <v>6</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>412</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11">
@@ -5100,28 +5100,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C4" s="11">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="C4" s="11">
-        <v>6</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>412</v>
-      </c>
       <c r="F4" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>417</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>419</v>
       </c>
       <c r="I4" s="11">
         <v>1090210</v>
@@ -5132,25 +5132,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C5" s="11">
+        <v>6</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="C5" s="11">
-        <v>6</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>412</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11">
@@ -5160,28 +5160,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C6" s="11">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="C6" s="11">
-        <v>6</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>412</v>
-      </c>
       <c r="F6" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>422</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>424</v>
       </c>
       <c r="I6" s="11">
         <v>1090206</v>
@@ -5192,28 +5192,28 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" s="11">
+        <v>6</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="C7" s="11">
-        <v>6</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>412</v>
-      </c>
       <c r="F7" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>425</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>427</v>
       </c>
       <c r="I7" s="11">
         <v>1090208</v>
@@ -5224,28 +5224,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C8" s="11">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="C8" s="11">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>412</v>
-      </c>
       <c r="F8" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>428</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>430</v>
       </c>
       <c r="I8" s="11">
         <v>1090216</v>
@@ -5256,28 +5256,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C9" s="11">
+        <v>6</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="11">
-        <v>6</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>412</v>
-      </c>
       <c r="F9" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>431</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>433</v>
       </c>
       <c r="I9" s="11">
         <v>1090212</v>
@@ -5288,28 +5288,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10" s="11">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="C10" s="11">
-        <v>6</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>412</v>
-      </c>
       <c r="F10" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>434</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>436</v>
       </c>
       <c r="I10" s="11">
         <v>1090213</v>
@@ -5320,28 +5320,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C11" s="11">
+        <v>6</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="C11" s="11">
-        <v>6</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>412</v>
-      </c>
       <c r="F11" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>437</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>439</v>
       </c>
       <c r="I11" s="11">
         <v>1090214</v>
@@ -5352,56 +5352,56 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" s="16">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="E12" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="C12" s="16">
-        <v>6</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>412</v>
-      </c>
       <c r="F12" s="16" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" s="11">
+        <v>6</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="C13" s="11">
-        <v>6</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>412</v>
-      </c>
       <c r="F13" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>441</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>443</v>
       </c>
       <c r="I13" s="11">
         <v>1090207</v>
@@ -5412,28 +5412,28 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C14" s="11">
+        <v>6</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="C14" s="11">
-        <v>6</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>412</v>
-      </c>
       <c r="F14" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>444</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>446</v>
       </c>
       <c r="I14" s="11">
         <v>1090215</v>
@@ -5444,10 +5444,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C15" s="11">
         <v>6</v>
@@ -5456,16 +5456,16 @@
         <v>180</v>
       </c>
       <c r="E15" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>448</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>450</v>
       </c>
       <c r="I15" s="11">
         <v>1090307</v>
@@ -5476,10 +5476,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C16" s="11">
         <v>6</v>
@@ -5488,16 +5488,16 @@
         <v>180</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>451</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>453</v>
       </c>
       <c r="I16" s="11">
         <v>1090304</v>
@@ -5508,10 +5508,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C17" s="11">
         <v>6</v>
@@ -5520,16 +5520,16 @@
         <v>180</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>454</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>456</v>
       </c>
       <c r="I17" s="11">
         <v>1090312</v>
@@ -5540,10 +5540,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C18" s="11">
         <v>6</v>
@@ -5552,16 +5552,16 @@
         <v>180</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F18" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>457</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>459</v>
       </c>
       <c r="I18" s="11">
         <v>1090317</v>
@@ -5572,10 +5572,10 @@
     </row>
     <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C19" s="11">
         <v>6</v>
@@ -5584,31 +5584,31 @@
         <v>180</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F19" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>460</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>462</v>
       </c>
       <c r="I19" s="11">
         <v>1090306</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C20" s="11">
         <v>6</v>
@@ -5617,16 +5617,16 @@
         <v>180</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F20" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>463</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>465</v>
       </c>
       <c r="I20" s="11">
         <v>1090313</v>
@@ -5637,10 +5637,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C21" s="11">
         <v>6</v>
@@ -5649,16 +5649,16 @@
         <v>180</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F21" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>466</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>468</v>
       </c>
       <c r="I21" s="11">
         <v>1090308</v>
@@ -5669,10 +5669,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C22" s="11">
         <v>6</v>
@@ -5681,16 +5681,16 @@
         <v>180</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F22" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>469</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>471</v>
       </c>
       <c r="I22" s="11">
         <v>1090305</v>
@@ -5701,10 +5701,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C23" s="11">
         <v>6</v>
@@ -5713,13 +5713,13 @@
         <v>180</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11">
@@ -5729,10 +5729,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C24" s="11">
         <v>6</v>
@@ -5741,13 +5741,13 @@
         <v>180</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11">
@@ -5757,10 +5757,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C25" s="11">
         <v>6</v>
@@ -5769,13 +5769,13 @@
         <v>180</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11">
@@ -5785,10 +5785,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C26" s="11">
         <v>6</v>
@@ -5797,16 +5797,16 @@
         <v>180</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F26" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>478</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>480</v>
       </c>
       <c r="I26" s="11">
         <v>1090311</v>
@@ -5817,10 +5817,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C27" s="11">
         <v>6</v>
@@ -5829,16 +5829,16 @@
         <v>180</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F27" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>481</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>483</v>
       </c>
       <c r="I27" s="11">
         <v>1090309</v>
@@ -5849,10 +5849,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C28" s="11">
         <v>6</v>
@@ -5861,16 +5861,16 @@
         <v>180</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F28" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>484</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>486</v>
       </c>
       <c r="I28" s="11">
         <v>1090302</v>
@@ -5881,10 +5881,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C29" s="11">
         <v>6</v>
@@ -5893,16 +5893,16 @@
         <v>180</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F29" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="H29" s="11" t="s">
         <v>487</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>489</v>
       </c>
       <c r="I29" s="11">
         <v>1090318</v>
@@ -5913,10 +5913,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C30" s="11">
         <v>6</v>
@@ -5925,16 +5925,16 @@
         <v>180</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F30" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>490</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>492</v>
       </c>
       <c r="I30" s="11">
         <v>1090315</v>
@@ -5945,10 +5945,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C31" s="11">
         <v>6</v>
@@ -5957,16 +5957,16 @@
         <v>180</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F31" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>493</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>495</v>
       </c>
       <c r="I31" s="11">
         <v>1090310</v>
@@ -5977,10 +5977,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C32" s="11">
         <v>6</v>
@@ -5989,13 +5989,13 @@
         <v>180</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11">
@@ -6005,10 +6005,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C33" s="11">
         <v>6</v>
@@ -6017,16 +6017,16 @@
         <v>180</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F33" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>498</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>500</v>
       </c>
       <c r="I33" s="11">
         <v>1090314</v>
@@ -6037,10 +6037,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C34" s="11">
         <v>6</v>
@@ -6049,16 +6049,16 @@
         <v>180</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F34" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="H34" s="11" t="s">
         <v>501</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>503</v>
       </c>
       <c r="I34" s="11">
         <v>1090303</v>
@@ -6069,28 +6069,28 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C35" s="11">
         <v>6</v>
       </c>
       <c r="D35" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="G35" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>506</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>508</v>
       </c>
       <c r="I35" s="11">
         <v>1090605</v>
@@ -6101,28 +6101,28 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C36" s="11">
         <v>6</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F36" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="H36" s="11" t="s">
         <v>509</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>511</v>
       </c>
       <c r="I36" s="11">
         <v>1090624</v>
@@ -6131,28 +6131,28 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C37" s="11">
         <v>6</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F37" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>512</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>514</v>
       </c>
       <c r="I37" s="11">
         <v>1090608</v>
@@ -6161,28 +6161,28 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C38" s="11">
         <v>6</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F38" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>515</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>517</v>
       </c>
       <c r="I38" s="11">
         <v>1090603</v>
@@ -6193,28 +6193,28 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C39" s="11">
         <v>6</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F39" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="H39" s="11" t="s">
         <v>518</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>520</v>
       </c>
       <c r="I39" s="11">
         <v>1090615</v>
@@ -6225,28 +6225,28 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C40" s="11">
         <v>6</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F40" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="H40" s="11" t="s">
         <v>521</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>523</v>
       </c>
       <c r="I40" s="11">
         <v>1090618</v>
@@ -6257,25 +6257,25 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C41" s="11">
         <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11">
@@ -6285,28 +6285,28 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C42" s="11">
         <v>6</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F42" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>526</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>528</v>
       </c>
       <c r="I42" s="11">
         <v>1090602</v>
@@ -6315,93 +6315,93 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C43" s="11">
         <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F43" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>529</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>531</v>
       </c>
       <c r="I43" s="11">
         <v>1090606</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C44" s="11">
         <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F44" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>532</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>534</v>
       </c>
       <c r="I44" s="11">
         <v>1090600</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K44" s="8"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C45" s="11">
         <v>6</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F45" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="H45" s="11" t="s">
         <v>535</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>537</v>
       </c>
       <c r="I45" s="11">
         <v>1090617</v>
@@ -6412,28 +6412,28 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C46" s="11">
         <v>6</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F46" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="H46" s="11" t="s">
         <v>538</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>540</v>
       </c>
       <c r="I46" s="11">
         <v>1090614</v>
@@ -6444,28 +6444,28 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C47" s="11">
         <v>6</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F47" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>541</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>543</v>
       </c>
       <c r="I47" s="11">
         <v>1090616</v>
@@ -6476,28 +6476,28 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C48" s="11">
         <v>6</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F48" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="H48" s="11" t="s">
         <v>544</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>546</v>
       </c>
       <c r="I48" s="11">
         <v>1090620</v>
@@ -6508,28 +6508,28 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C49" s="11">
         <v>6</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F49" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="H49" s="11" t="s">
         <v>547</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>549</v>
       </c>
       <c r="I49" s="11">
         <v>1090613</v>
@@ -6540,28 +6540,28 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C50" s="11">
         <v>6</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F50" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="H50" s="11" t="s">
         <v>550</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>552</v>
       </c>
       <c r="I50" s="11">
         <v>1090625</v>
@@ -6572,28 +6572,28 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C51" s="11">
         <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F51" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="H51" s="11" t="s">
         <v>553</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>555</v>
       </c>
       <c r="I51" s="11">
         <v>1090622</v>
@@ -6604,28 +6604,28 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C52" s="11">
         <v>6</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F52" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="H52" s="11" t="s">
         <v>556</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>558</v>
       </c>
       <c r="I52" s="11">
         <v>1090601</v>
@@ -6636,28 +6636,28 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C53" s="11">
         <v>6</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F53" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="H53" s="11" t="s">
         <v>559</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>561</v>
       </c>
       <c r="I53" s="11">
         <v>1090610</v>
@@ -6668,28 +6668,28 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C54" s="11">
         <v>6</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F54" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="H54" s="11" t="s">
         <v>562</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>564</v>
       </c>
       <c r="I54" s="11">
         <v>1090621</v>
@@ -6700,28 +6700,28 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C55" s="11">
         <v>6</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F55" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="H55" s="11" t="s">
         <v>565</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>567</v>
       </c>
       <c r="I55" s="11">
         <v>1090609</v>
@@ -6732,25 +6732,25 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C56" s="11">
         <v>6</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H56" s="11"/>
       <c r="I56" s="11">
@@ -6760,28 +6760,28 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C57" s="11">
         <v>6</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F57" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="H57" s="11" t="s">
         <v>570</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>572</v>
       </c>
       <c r="I57" s="11">
         <v>1090612</v>
@@ -6790,25 +6790,25 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C58" s="11">
         <v>6</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H58" s="11"/>
       <c r="I58" s="11">
@@ -6818,28 +6818,28 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C59" s="11">
         <v>6</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F59" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="H59" s="11" t="s">
         <v>575</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>577</v>
       </c>
       <c r="I59" s="11">
         <v>1090611</v>
@@ -6850,28 +6850,28 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C60" s="11">
         <v>6</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F60" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>578</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>580</v>
       </c>
       <c r="I60" s="11">
         <v>1090619</v>
@@ -6882,28 +6882,28 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C61" s="11">
         <v>6</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F61" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="H61" s="11" t="s">
         <v>581</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>582</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>583</v>
       </c>
       <c r="I61" s="11">
         <v>1090607</v>
@@ -6914,28 +6914,28 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C62" s="11">
         <v>6</v>
       </c>
       <c r="D62" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="F62" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="G62" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="H62" s="11" t="s">
         <v>586</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>588</v>
       </c>
       <c r="I62" s="11">
         <v>1091206</v>
@@ -6946,28 +6946,28 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C63" s="11">
         <v>6</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F63" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="H63" s="11" t="s">
         <v>589</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>591</v>
       </c>
       <c r="I63" s="11">
         <v>1091217</v>
@@ -6978,25 +6978,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C64" s="11">
         <v>6</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="11">
@@ -7008,57 +7008,57 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C65" s="11">
         <v>6</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F65" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="H65" s="11" t="s">
         <v>594</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>596</v>
       </c>
       <c r="I65" s="11">
         <v>1091209</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C66" s="11">
         <v>6</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11">
@@ -7070,25 +7070,25 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C67" s="11">
         <v>6</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="11">
@@ -7098,28 +7098,28 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C68" s="11">
         <v>6</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F68" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="H68" s="11" t="s">
         <v>601</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>603</v>
       </c>
       <c r="I68" s="11">
         <v>1091212</v>
@@ -7130,25 +7130,25 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C69" s="11">
         <v>6</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H69" s="11"/>
       <c r="I69" s="11">
@@ -7160,25 +7160,25 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C70" s="11">
         <v>6</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="11">
@@ -7190,28 +7190,28 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C71" s="11">
         <v>6</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F71" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="H71" s="11" t="s">
         <v>608</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>610</v>
       </c>
       <c r="I71" s="11">
         <v>1090904</v>
@@ -7222,25 +7222,25 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C72" s="11">
         <v>6</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H72" s="11"/>
       <c r="I72" s="11">
@@ -7252,28 +7252,28 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C73" s="11">
         <v>6</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F73" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="H73" s="11" t="s">
         <v>613</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>615</v>
       </c>
       <c r="I73" s="11">
         <v>1091210</v>
@@ -7284,28 +7284,28 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C74" s="11">
         <v>6</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F74" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="H74" s="11" t="s">
         <v>616</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>618</v>
       </c>
       <c r="I74" s="11">
         <v>1091216</v>
@@ -7316,28 +7316,28 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C75" s="11">
         <v>6</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F75" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="H75" s="11" t="s">
         <v>619</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>621</v>
       </c>
       <c r="I75" s="11">
         <v>1091213</v>
@@ -7348,28 +7348,28 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C76" s="13">
         <v>5</v>
       </c>
       <c r="D76" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="F76" s="13" t="s">
         <v>622</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>624</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>124</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="I76" s="13"/>
       <c r="J76" s="13" t="s">
@@ -7378,31 +7378,31 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C77" s="13">
         <v>5</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>125</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J77" s="13" t="s">
         <v>149</v>
@@ -7410,28 +7410,28 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C78" s="13">
         <v>5</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G78" s="13" t="s">
         <v>126</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I78" s="13"/>
       <c r="J78" s="13" t="s">
@@ -7440,28 +7440,28 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C79" s="13">
         <v>5</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G79" s="13" t="s">
         <v>128</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I79" s="13"/>
       <c r="J79" s="13" t="s">
@@ -7470,28 +7470,28 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C80" s="13">
         <v>5</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G80" s="13" t="s">
         <v>134</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I80" s="13"/>
       <c r="J80" s="13" t="s">
@@ -7500,28 +7500,28 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C81" s="13">
         <v>5</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>130</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I81" s="13"/>
       <c r="J81" s="13" t="s">
@@ -7530,28 +7530,28 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C82" s="13">
         <v>5</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>132</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I82" s="13"/>
       <c r="J82" s="13" t="s">
@@ -7560,60 +7560,60 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C83" s="11">
         <v>5</v>
       </c>
       <c r="D83" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="H83" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="E83" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>640</v>
-      </c>
       <c r="I83" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C84" s="11">
         <v>5</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G84" s="11" t="s">
         <v>180</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I84" s="11"/>
       <c r="J84" s="12" t="s">
@@ -7622,84 +7622,84 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C85" s="11">
         <v>5</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F85" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="H85" s="11" t="s">
         <v>642</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>643</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>644</v>
       </c>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C86" s="11">
         <v>5</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F86" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="H86" s="11" t="s">
         <v>645</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>646</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>647</v>
       </c>
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C87" s="11">
         <v>5</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I87" s="11"/>
       <c r="J87" s="12" t="s">
@@ -7708,25 +7708,25 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C88" s="11">
         <v>5</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
@@ -7736,141 +7736,141 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C89" s="11">
         <v>5</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I89" s="11"/>
       <c r="J89" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C90" s="11">
         <v>5</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
       <c r="J90" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C91" s="11">
         <v>5</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>240</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I91" s="11"/>
       <c r="J91" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K91" s="8"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C92" s="11">
         <v>5</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F92" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="H92" s="11" t="s">
         <v>657</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="H92" s="11" t="s">
-        <v>659</v>
       </c>
       <c r="I92" s="11"/>
       <c r="J92" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C93" s="11">
         <v>5</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>272</v>
@@ -7883,56 +7883,56 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C94" s="11">
         <v>5</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F94" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="H94" s="11" t="s">
         <v>661</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="H94" s="11" t="s">
-        <v>663</v>
       </c>
       <c r="I94" s="11"/>
       <c r="J94" s="11"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C95" s="11">
         <v>5</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>282</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I95" s="11"/>
       <c r="J95" s="12" t="s">
@@ -7941,40 +7941,40 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C96" s="11">
         <v>5</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F96" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="H96" s="11" t="s">
         <v>666</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>667</v>
-      </c>
-      <c r="H96" s="11" t="s">
-        <v>668</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C97" s="11">
         <v>6</v>
@@ -7983,16 +7983,16 @@
         <v>222</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F97" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="H97" s="11" t="s">
         <v>669</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>670</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>671</v>
       </c>
       <c r="I97" s="11">
         <v>1090715</v>
@@ -8003,10 +8003,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C98" s="11">
         <v>6</v>
@@ -8015,16 +8015,16 @@
         <v>222</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F98" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="H98" s="11" t="s">
         <v>672</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>673</v>
-      </c>
-      <c r="H98" s="11" t="s">
-        <v>674</v>
       </c>
       <c r="I98" s="11">
         <v>1090709</v>
@@ -8035,10 +8035,10 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C99" s="11">
         <v>6</v>
@@ -8047,16 +8047,16 @@
         <v>222</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F99" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="H99" s="11" t="s">
         <v>675</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>676</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>677</v>
       </c>
       <c r="I99" s="11">
         <v>1090710</v>
@@ -8067,10 +8067,10 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C100" s="11">
         <v>6</v>
@@ -8079,16 +8079,16 @@
         <v>222</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F100" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="H100" s="11" t="s">
         <v>678</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>679</v>
-      </c>
-      <c r="H100" s="11" t="s">
-        <v>680</v>
       </c>
       <c r="I100" s="11">
         <v>1090711</v>
@@ -8099,10 +8099,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C101" s="11">
         <v>6</v>
@@ -8111,13 +8111,13 @@
         <v>222</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" s="11">
@@ -8127,10 +8127,10 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C102" s="11">
         <v>6</v>
@@ -8139,16 +8139,16 @@
         <v>222</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F102" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="H102" s="11" t="s">
         <v>683</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>684</v>
-      </c>
-      <c r="H102" s="11" t="s">
-        <v>685</v>
       </c>
       <c r="I102" s="11">
         <v>1090706</v>
@@ -8159,10 +8159,10 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C103" s="11">
         <v>6</v>
@@ -8171,13 +8171,13 @@
         <v>222</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H103" s="11"/>
       <c r="I103" s="11">
@@ -8189,10 +8189,10 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C104" s="11">
         <v>6</v>
@@ -8201,16 +8201,16 @@
         <v>222</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F104" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="H104" s="11" t="s">
         <v>688</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>690</v>
       </c>
       <c r="I104" s="11">
         <v>1090701</v>
@@ -8221,10 +8221,10 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C105" s="11">
         <v>6</v>
@@ -8233,16 +8233,16 @@
         <v>222</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F105" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="H105" s="11" t="s">
         <v>691</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="H105" s="11" t="s">
-        <v>693</v>
       </c>
       <c r="I105" s="11">
         <v>1090712</v>
@@ -8253,10 +8253,10 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C106" s="11">
         <v>6</v>
@@ -8265,16 +8265,16 @@
         <v>222</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F106" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="H106" s="11" t="s">
         <v>694</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="H106" s="11" t="s">
-        <v>696</v>
       </c>
       <c r="I106" s="11">
         <v>1090713</v>
@@ -8285,10 +8285,10 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C107" s="11">
         <v>6</v>
@@ -8297,16 +8297,16 @@
         <v>222</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F107" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="H107" s="11" t="s">
         <v>697</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="H107" s="11" t="s">
-        <v>699</v>
       </c>
       <c r="I107" s="11">
         <v>1090707</v>
@@ -8317,10 +8317,10 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C108" s="11">
         <v>6</v>
@@ -8329,13 +8329,13 @@
         <v>222</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H108" s="11"/>
       <c r="I108" s="11">
@@ -8345,10 +8345,10 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C109" s="13">
         <v>6</v>
@@ -8357,19 +8357,19 @@
         <v>124</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F109" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="H109" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="G109" s="13" t="s">
+      <c r="I109" s="13" t="s">
         <v>703</v>
-      </c>
-      <c r="H109" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="I109" s="13" t="s">
-        <v>705</v>
       </c>
       <c r="J109" s="13" t="s">
         <v>84</v>
@@ -8377,10 +8377,10 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C110" s="13">
         <v>6</v>
@@ -8389,19 +8389,19 @@
         <v>124</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F110" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="H110" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="G110" s="13" t="s">
+      <c r="I110" s="13" t="s">
         <v>707</v>
-      </c>
-      <c r="H110" s="13" t="s">
-        <v>708</v>
-      </c>
-      <c r="I110" s="13" t="s">
-        <v>709</v>
       </c>
       <c r="J110" s="13" t="s">
         <v>85</v>
@@ -8409,10 +8409,10 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C111" s="13">
         <v>6</v>
@@ -8421,26 +8421,26 @@
         <v>124</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H111" s="13"/>
       <c r="I111" s="13" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="J111" s="13"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C112" s="13">
         <v>6</v>
@@ -8449,30 +8449,30 @@
         <v>124</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F112" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="H112" s="13" t="s">
         <v>713</v>
       </c>
-      <c r="G112" s="13" t="s">
+      <c r="I112" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="H112" s="13" t="s">
+      <c r="J112" s="13" t="s">
         <v>715</v>
-      </c>
-      <c r="I112" s="13" t="s">
-        <v>716</v>
-      </c>
-      <c r="J112" s="13" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C113" s="13">
         <v>6</v>
@@ -8481,19 +8481,19 @@
         <v>124</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F113" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>717</v>
+      </c>
+      <c r="H113" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="G113" s="13" t="s">
+      <c r="I113" s="13" t="s">
         <v>719</v>
-      </c>
-      <c r="H113" s="13" t="s">
-        <v>720</v>
-      </c>
-      <c r="I113" s="13" t="s">
-        <v>721</v>
       </c>
       <c r="J113" s="13" t="s">
         <v>87</v>
@@ -8501,10 +8501,10 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C114" s="13">
         <v>6</v>
@@ -8513,19 +8513,19 @@
         <v>124</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F114" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="H114" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="G114" s="13" t="s">
+      <c r="I114" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="H114" s="13" t="s">
-        <v>724</v>
-      </c>
-      <c r="I114" s="13" t="s">
-        <v>725</v>
       </c>
       <c r="J114" s="13" t="s">
         <v>89</v>
@@ -8533,10 +8533,10 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C115" s="13">
         <v>6</v>
@@ -8545,19 +8545,19 @@
         <v>124</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F115" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="H115" s="13" t="s">
         <v>726</v>
       </c>
-      <c r="G115" s="13" t="s">
+      <c r="I115" s="13" t="s">
         <v>727</v>
-      </c>
-      <c r="H115" s="13" t="s">
-        <v>728</v>
-      </c>
-      <c r="I115" s="13" t="s">
-        <v>729</v>
       </c>
       <c r="J115" s="13" t="s">
         <v>153</v>
@@ -8565,10 +8565,10 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C116" s="13">
         <v>6</v>
@@ -8577,30 +8577,30 @@
         <v>124</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F116" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="H116" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="G116" s="13" t="s">
+      <c r="I116" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="H116" s="13" t="s">
+      <c r="J116" s="13" t="s">
         <v>732</v>
-      </c>
-      <c r="I116" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="J116" s="13" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C117" s="13">
         <v>6</v>
@@ -8609,19 +8609,19 @@
         <v>125</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F117" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="H117" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="G117" s="13" t="s">
+      <c r="I117" s="13" t="s">
         <v>736</v>
-      </c>
-      <c r="H117" s="13" t="s">
-        <v>737</v>
-      </c>
-      <c r="I117" s="13" t="s">
-        <v>738</v>
       </c>
       <c r="J117" s="13" t="s">
         <v>92</v>
@@ -8629,10 +8629,10 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C118" s="13">
         <v>6</v>
@@ -8641,17 +8641,17 @@
         <v>125</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H118" s="13"/>
       <c r="I118" s="13" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J118" s="13" t="s">
         <v>93</v>
@@ -8659,10 +8659,10 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C119" s="13">
         <v>6</v>
@@ -8671,19 +8671,19 @@
         <v>126</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F119" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="H119" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="G119" s="13" t="s">
+      <c r="I119" s="13" t="s">
         <v>743</v>
-      </c>
-      <c r="H119" s="13" t="s">
-        <v>744</v>
-      </c>
-      <c r="I119" s="13" t="s">
-        <v>745</v>
       </c>
       <c r="J119" s="13" t="s">
         <v>95</v>
@@ -8691,10 +8691,10 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C120" s="13">
         <v>6</v>
@@ -8703,19 +8703,19 @@
         <v>126</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F120" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="H120" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="G120" s="13" t="s">
+      <c r="I120" s="13" t="s">
         <v>747</v>
-      </c>
-      <c r="H120" s="13" t="s">
-        <v>748</v>
-      </c>
-      <c r="I120" s="13" t="s">
-        <v>749</v>
       </c>
       <c r="J120" s="13" t="s">
         <v>98</v>
@@ -8723,10 +8723,10 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C121" s="13">
         <v>6</v>
@@ -8735,19 +8735,19 @@
         <v>126</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F121" s="13" t="s">
+        <v>748</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="H121" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="G121" s="13" t="s">
+      <c r="I121" s="13" t="s">
         <v>751</v>
-      </c>
-      <c r="H121" s="13" t="s">
-        <v>752</v>
-      </c>
-      <c r="I121" s="13" t="s">
-        <v>753</v>
       </c>
       <c r="J121" s="13" t="s">
         <v>97</v>
@@ -8755,10 +8755,10 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C122" s="13">
         <v>6</v>
@@ -8767,19 +8767,19 @@
         <v>126</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F122" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>753</v>
+      </c>
+      <c r="H122" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="G122" s="13" t="s">
+      <c r="I122" s="13" t="s">
         <v>755</v>
-      </c>
-      <c r="H122" s="13" t="s">
-        <v>756</v>
-      </c>
-      <c r="I122" s="13" t="s">
-        <v>757</v>
       </c>
       <c r="J122" s="13" t="s">
         <v>99</v>
@@ -8787,10 +8787,10 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C123" s="13">
         <v>6</v>
@@ -8799,19 +8799,19 @@
         <v>126</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F123" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="H123" s="13" t="s">
         <v>758</v>
       </c>
-      <c r="G123" s="13" t="s">
+      <c r="I123" s="13" t="s">
         <v>759</v>
-      </c>
-      <c r="H123" s="13" t="s">
-        <v>760</v>
-      </c>
-      <c r="I123" s="13" t="s">
-        <v>761</v>
       </c>
       <c r="J123" s="13" t="s">
         <v>100</v>
@@ -8819,10 +8819,10 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C124" s="13">
         <v>6</v>
@@ -8831,19 +8831,19 @@
         <v>126</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F124" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="H124" s="13" t="s">
         <v>762</v>
       </c>
-      <c r="G124" s="13" t="s">
+      <c r="I124" s="13" t="s">
         <v>763</v>
-      </c>
-      <c r="H124" s="13" t="s">
-        <v>764</v>
-      </c>
-      <c r="I124" s="13" t="s">
-        <v>765</v>
       </c>
       <c r="J124" s="13" t="s">
         <v>102</v>
@@ -8851,10 +8851,10 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C125" s="13">
         <v>6</v>
@@ -8863,17 +8863,17 @@
         <v>126</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="H125" s="13"/>
       <c r="I125" s="13" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="J125" s="13" t="s">
         <v>152</v>
@@ -8881,10 +8881,10 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C126" s="13">
         <v>6</v>
@@ -8893,19 +8893,19 @@
         <v>128</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F126" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="G126" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="H126" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="G126" s="13" t="s">
+      <c r="I126" s="13" t="s">
         <v>770</v>
-      </c>
-      <c r="H126" s="13" t="s">
-        <v>771</v>
-      </c>
-      <c r="I126" s="13" t="s">
-        <v>772</v>
       </c>
       <c r="J126" s="13" t="s">
         <v>104</v>
@@ -8913,10 +8913,10 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C127" s="13">
         <v>6</v>
@@ -8925,30 +8925,30 @@
         <v>128</v>
       </c>
       <c r="E127" s="13" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F127" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="G127" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="H127" s="13" t="s">
         <v>773</v>
       </c>
-      <c r="G127" s="13" t="s">
+      <c r="I127" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="H127" s="13" t="s">
+      <c r="J127" s="13" t="s">
         <v>775</v>
-      </c>
-      <c r="I127" s="13" t="s">
-        <v>776</v>
-      </c>
-      <c r="J127" s="13" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C128" s="13">
         <v>6</v>
@@ -8957,19 +8957,19 @@
         <v>128</v>
       </c>
       <c r="E128" s="13" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F128" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="H128" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="G128" s="13" t="s">
+      <c r="I128" s="13" t="s">
         <v>779</v>
-      </c>
-      <c r="H128" s="13" t="s">
-        <v>780</v>
-      </c>
-      <c r="I128" s="13" t="s">
-        <v>781</v>
       </c>
       <c r="J128" s="13" t="s">
         <v>107</v>
@@ -8977,10 +8977,10 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C129" s="13">
         <v>6</v>
@@ -8989,26 +8989,26 @@
         <v>128</v>
       </c>
       <c r="E129" s="13" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H129" s="13"/>
       <c r="I129" s="13" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="J129" s="13"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C130" s="13">
         <v>6</v>
@@ -9017,19 +9017,19 @@
         <v>128</v>
       </c>
       <c r="E130" s="13" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F130" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="H130" s="13" t="s">
         <v>785</v>
       </c>
-      <c r="G130" s="13" t="s">
+      <c r="I130" s="13" t="s">
         <v>786</v>
-      </c>
-      <c r="H130" s="13" t="s">
-        <v>787</v>
-      </c>
-      <c r="I130" s="13" t="s">
-        <v>788</v>
       </c>
       <c r="J130" s="13" t="s">
         <v>109</v>
@@ -9037,10 +9037,10 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C131" s="13">
         <v>6</v>
@@ -9049,19 +9049,19 @@
         <v>128</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F131" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="G131" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="H131" s="13" t="s">
         <v>789</v>
       </c>
-      <c r="G131" s="13" t="s">
+      <c r="I131" s="13" t="s">
         <v>790</v>
-      </c>
-      <c r="H131" s="13" t="s">
-        <v>791</v>
-      </c>
-      <c r="I131" s="13" t="s">
-        <v>792</v>
       </c>
       <c r="J131" s="13" t="s">
         <v>151</v>
@@ -9069,10 +9069,10 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C132" s="13">
         <v>6</v>
@@ -9081,19 +9081,19 @@
         <v>128</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F132" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="H132" s="13" t="s">
         <v>793</v>
       </c>
-      <c r="G132" s="13" t="s">
+      <c r="I132" s="13" t="s">
         <v>794</v>
-      </c>
-      <c r="H132" s="13" t="s">
-        <v>795</v>
-      </c>
-      <c r="I132" s="13" t="s">
-        <v>796</v>
       </c>
       <c r="J132" s="13" t="s">
         <v>111</v>
@@ -9101,10 +9101,10 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C133" s="13">
         <v>6</v>
@@ -9113,19 +9113,19 @@
         <v>130</v>
       </c>
       <c r="E133" s="13" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F133" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="H133" s="13" t="s">
         <v>797</v>
       </c>
-      <c r="G133" s="13" t="s">
+      <c r="I133" s="13" t="s">
         <v>798</v>
-      </c>
-      <c r="H133" s="13" t="s">
-        <v>799</v>
-      </c>
-      <c r="I133" s="13" t="s">
-        <v>800</v>
       </c>
       <c r="J133" s="13" t="s">
         <v>113</v>
@@ -9133,10 +9133,10 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C134" s="13">
         <v>6</v>
@@ -9145,19 +9145,19 @@
         <v>132</v>
       </c>
       <c r="E134" s="13" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F134" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="H134" s="13" t="s">
         <v>801</v>
       </c>
-      <c r="G134" s="13" t="s">
+      <c r="I134" s="13" t="s">
         <v>802</v>
-      </c>
-      <c r="H134" s="13" t="s">
-        <v>803</v>
-      </c>
-      <c r="I134" s="13" t="s">
-        <v>804</v>
       </c>
       <c r="J134" s="13" t="s">
         <v>115</v>
@@ -9165,10 +9165,10 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C135" s="13">
         <v>6</v>
@@ -9177,19 +9177,19 @@
         <v>132</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F135" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="H135" s="13" t="s">
         <v>805</v>
       </c>
-      <c r="G135" s="13" t="s">
+      <c r="I135" s="13" t="s">
         <v>806</v>
-      </c>
-      <c r="H135" s="13" t="s">
-        <v>807</v>
-      </c>
-      <c r="I135" s="13" t="s">
-        <v>808</v>
       </c>
       <c r="J135" s="13" t="s">
         <v>116</v>
@@ -9197,28 +9197,28 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C136" s="11">
         <v>6</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F136" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="H136" s="11" t="s">
         <v>809</v>
-      </c>
-      <c r="G136" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="H136" s="11" t="s">
-        <v>811</v>
       </c>
       <c r="I136" s="11">
         <v>1091201</v>
@@ -9229,28 +9229,28 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C137" s="11">
         <v>6</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F137" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="H137" s="11" t="s">
         <v>812</v>
-      </c>
-      <c r="G137" s="11" t="s">
-        <v>813</v>
-      </c>
-      <c r="H137" s="11" t="s">
-        <v>814</v>
       </c>
       <c r="I137" s="11">
         <v>1091208</v>
@@ -9261,28 +9261,28 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C138" s="11">
         <v>6</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F138" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="H138" s="11" t="s">
         <v>815</v>
-      </c>
-      <c r="G138" s="11" t="s">
-        <v>816</v>
-      </c>
-      <c r="H138" s="11" t="s">
-        <v>817</v>
       </c>
       <c r="I138" s="11">
         <v>1090209</v>
@@ -9293,25 +9293,25 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C139" s="11">
         <v>6</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="H139" s="11"/>
       <c r="I139" s="11">
@@ -9321,25 +9321,25 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C140" s="11">
         <v>6</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H140" s="11"/>
       <c r="I140" s="11">
@@ -9349,28 +9349,28 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C141" s="11">
         <v>6</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F141" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="H141" s="11" t="s">
         <v>822</v>
-      </c>
-      <c r="G141" s="11" t="s">
-        <v>823</v>
-      </c>
-      <c r="H141" s="11" t="s">
-        <v>824</v>
       </c>
       <c r="I141" s="11">
         <v>1091211</v>
@@ -9381,28 +9381,28 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C142" s="11">
         <v>6</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F142" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="H142" s="11" t="s">
         <v>825</v>
-      </c>
-      <c r="G142" s="11" t="s">
-        <v>826</v>
-      </c>
-      <c r="H142" s="11" t="s">
-        <v>827</v>
       </c>
       <c r="I142" s="11">
         <v>1090211</v>
@@ -9413,25 +9413,25 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C143" s="11">
         <v>6</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="H143" s="11"/>
       <c r="I143" s="11">
@@ -9441,28 +9441,28 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C144" s="11">
         <v>6</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F144" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="H144" s="11" t="s">
         <v>830</v>
-      </c>
-      <c r="G144" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="H144" s="11" t="s">
-        <v>832</v>
       </c>
       <c r="I144" s="11">
         <v>1091215</v>
@@ -9473,28 +9473,28 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C145" s="11">
         <v>6</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F145" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="H145" s="11" t="s">
         <v>833</v>
-      </c>
-      <c r="G145" s="11" t="s">
-        <v>834</v>
-      </c>
-      <c r="H145" s="11" t="s">
-        <v>835</v>
       </c>
       <c r="I145" s="11">
         <v>1091214</v>
@@ -9505,10 +9505,10 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C146" s="11">
         <v>6</v>
@@ -9517,13 +9517,13 @@
         <v>240</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H146" s="11"/>
       <c r="I146" s="11"/>
@@ -9531,10 +9531,10 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C147" s="11">
         <v>6</v>
@@ -9543,13 +9543,13 @@
         <v>240</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="H147" s="11"/>
       <c r="I147" s="11">
@@ -9559,10 +9559,10 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C148" s="11">
         <v>6</v>
@@ -9571,16 +9571,16 @@
         <v>240</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F148" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="H148" s="11" t="s">
         <v>840</v>
-      </c>
-      <c r="G148" s="11" t="s">
-        <v>841</v>
-      </c>
-      <c r="H148" s="11" t="s">
-        <v>842</v>
       </c>
       <c r="I148" s="11">
         <v>1090807</v>
@@ -9591,10 +9591,10 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C149" s="11">
         <v>6</v>
@@ -9603,13 +9603,13 @@
         <v>240</v>
       </c>
       <c r="E149" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="F149" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="F149" s="11" t="s">
-        <v>655</v>
-      </c>
       <c r="G149" s="11" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H149" s="11"/>
       <c r="I149" s="11">
@@ -9621,10 +9621,10 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C150" s="11">
         <v>6</v>
@@ -9633,16 +9633,16 @@
         <v>240</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F150" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="H150" s="11" t="s">
         <v>843</v>
-      </c>
-      <c r="G150" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="H150" s="11" t="s">
-        <v>845</v>
       </c>
       <c r="I150" s="11">
         <v>1090808</v>
@@ -9651,10 +9651,10 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C151" s="11">
         <v>6</v>
@@ -9663,16 +9663,16 @@
         <v>240</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F151" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="H151" s="11" t="s">
         <v>846</v>
-      </c>
-      <c r="G151" s="11" t="s">
-        <v>847</v>
-      </c>
-      <c r="H151" s="11" t="s">
-        <v>848</v>
       </c>
       <c r="I151" s="11">
         <v>1090801</v>
@@ -9681,10 +9681,10 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C152" s="11">
         <v>6</v>
@@ -9693,16 +9693,16 @@
         <v>240</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F152" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="H152" s="11" t="s">
         <v>849</v>
-      </c>
-      <c r="G152" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="H152" s="11" t="s">
-        <v>851</v>
       </c>
       <c r="I152" s="11">
         <v>1090809</v>
@@ -9711,10 +9711,10 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C153" s="11">
         <v>6</v>
@@ -9723,13 +9723,13 @@
         <v>240</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="H153" s="11"/>
       <c r="I153" s="11">
@@ -9739,10 +9739,10 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C154" s="11">
         <v>6</v>
@@ -9751,16 +9751,16 @@
         <v>240</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F154" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="H154" s="11" t="s">
         <v>854</v>
-      </c>
-      <c r="G154" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="H154" s="11" t="s">
-        <v>856</v>
       </c>
       <c r="I154" s="11">
         <v>1090810</v>
@@ -9769,10 +9769,10 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C155" s="11">
         <v>6</v>
@@ -9781,16 +9781,16 @@
         <v>240</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F155" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="H155" s="11" t="s">
         <v>857</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>858</v>
-      </c>
-      <c r="H155" s="11" t="s">
-        <v>859</v>
       </c>
       <c r="I155" s="11">
         <v>1090812</v>
@@ -9799,10 +9799,10 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C156" s="16">
         <v>6</v>
@@ -9811,28 +9811,28 @@
         <v>240</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G156" s="16" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="H156" s="16"/>
       <c r="I156" s="16">
         <v>1090804</v>
       </c>
       <c r="J156" s="16" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C157" s="11">
         <v>6</v>
@@ -9841,16 +9841,16 @@
         <v>240</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F157" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="H157" s="11" t="s">
         <v>862</v>
-      </c>
-      <c r="G157" s="11" t="s">
-        <v>863</v>
-      </c>
-      <c r="H157" s="11" t="s">
-        <v>864</v>
       </c>
       <c r="I157" s="11">
         <v>1090811</v>
@@ -9859,28 +9859,28 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C158" s="11">
         <v>6</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F158" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="H158" s="11" t="s">
         <v>865</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>866</v>
-      </c>
-      <c r="H158" s="11" t="s">
-        <v>867</v>
       </c>
       <c r="I158" s="11">
         <v>1090910</v>
@@ -9889,28 +9889,28 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C159" s="11">
         <v>6</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F159" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="H159" s="11" t="s">
         <v>868</v>
-      </c>
-      <c r="G159" s="11" t="s">
-        <v>869</v>
-      </c>
-      <c r="H159" s="11" t="s">
-        <v>870</v>
       </c>
       <c r="I159" s="11">
         <v>1090908</v>
@@ -9921,28 +9921,28 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C160" s="11">
         <v>6</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F160" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="H160" s="11" t="s">
         <v>871</v>
-      </c>
-      <c r="G160" s="11" t="s">
-        <v>872</v>
-      </c>
-      <c r="H160" s="11" t="s">
-        <v>873</v>
       </c>
       <c r="I160" s="11">
         <v>1090911</v>
@@ -9953,28 +9953,28 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C161" s="11">
         <v>6</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F161" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="H161" s="11" t="s">
         <v>874</v>
-      </c>
-      <c r="G161" s="11" t="s">
-        <v>875</v>
-      </c>
-      <c r="H161" s="11" t="s">
-        <v>876</v>
       </c>
       <c r="I161" s="11">
         <v>1090906</v>
@@ -9985,28 +9985,28 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C162" s="11">
         <v>6</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F162" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="H162" s="11" t="s">
         <v>877</v>
-      </c>
-      <c r="G162" s="11" t="s">
-        <v>878</v>
-      </c>
-      <c r="H162" s="11" t="s">
-        <v>879</v>
       </c>
       <c r="I162" s="11">
         <v>1090918</v>
@@ -10015,28 +10015,28 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C163" s="11">
         <v>6</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F163" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="G163" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="H163" s="11" t="s">
         <v>880</v>
-      </c>
-      <c r="G163" s="11" t="s">
-        <v>881</v>
-      </c>
-      <c r="H163" s="11" t="s">
-        <v>882</v>
       </c>
       <c r="I163" s="11">
         <v>1090907</v>
@@ -10047,28 +10047,28 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C164" s="11">
         <v>6</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F164" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="H164" s="11" t="s">
         <v>883</v>
-      </c>
-      <c r="G164" s="11" t="s">
-        <v>884</v>
-      </c>
-      <c r="H164" s="11" t="s">
-        <v>885</v>
       </c>
       <c r="I164" s="11">
         <v>1090927</v>
@@ -10079,28 +10079,28 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C165" s="11">
         <v>6</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F165" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="G165" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="H165" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="G165" s="11" t="s">
-        <v>887</v>
-      </c>
-      <c r="H165" s="11" t="s">
-        <v>888</v>
       </c>
       <c r="I165" s="11">
         <v>1090920</v>
@@ -10111,25 +10111,25 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C166" s="11">
         <v>6</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H166" s="11"/>
       <c r="I166" s="11">
@@ -10139,28 +10139,28 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C167" s="11">
         <v>6</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F167" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="H167" s="11" t="s">
         <v>891</v>
-      </c>
-      <c r="G167" s="11" t="s">
-        <v>892</v>
-      </c>
-      <c r="H167" s="11" t="s">
-        <v>893</v>
       </c>
       <c r="I167" s="11">
         <v>1090928</v>
@@ -10171,28 +10171,28 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C168" s="11">
         <v>6</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F168" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="G168" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="H168" s="11" t="s">
         <v>894</v>
-      </c>
-      <c r="G168" s="11" t="s">
-        <v>895</v>
-      </c>
-      <c r="H168" s="11" t="s">
-        <v>896</v>
       </c>
       <c r="I168" s="11">
         <v>1090912</v>
@@ -10203,28 +10203,28 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C169" s="11">
         <v>6</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F169" s="11" t="s">
+        <v>895</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="H169" s="11" t="s">
         <v>897</v>
-      </c>
-      <c r="G169" s="11" t="s">
-        <v>898</v>
-      </c>
-      <c r="H169" s="11" t="s">
-        <v>899</v>
       </c>
       <c r="I169" s="11">
         <v>1090902</v>
@@ -10233,28 +10233,28 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C170" s="11">
         <v>6</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F170" s="11" t="s">
+        <v>898</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="H170" s="11" t="s">
         <v>900</v>
-      </c>
-      <c r="G170" s="11" t="s">
-        <v>901</v>
-      </c>
-      <c r="H170" s="11" t="s">
-        <v>902</v>
       </c>
       <c r="I170" s="11">
         <v>1090901</v>
@@ -10265,28 +10265,28 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C171" s="11">
         <v>6</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F171" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="H171" s="11" t="s">
         <v>903</v>
-      </c>
-      <c r="G171" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="H171" s="11" t="s">
-        <v>905</v>
       </c>
       <c r="I171" s="11">
         <v>1090915</v>
@@ -10295,28 +10295,28 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C172" s="11">
         <v>6</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F172" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="H172" s="11" t="s">
         <v>906</v>
-      </c>
-      <c r="G172" s="11" t="s">
-        <v>907</v>
-      </c>
-      <c r="H172" s="11" t="s">
-        <v>908</v>
       </c>
       <c r="I172" s="11">
         <v>1090919</v>
@@ -10327,25 +10327,25 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C173" s="11">
         <v>6</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H173" s="11"/>
       <c r="I173" s="11">
@@ -10355,28 +10355,28 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C174" s="11">
         <v>6</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F174" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="H174" s="11" t="s">
         <v>911</v>
-      </c>
-      <c r="G174" s="11" t="s">
-        <v>912</v>
-      </c>
-      <c r="H174" s="11" t="s">
-        <v>913</v>
       </c>
       <c r="I174" s="11">
         <v>1090916</v>
@@ -10387,28 +10387,28 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C175" s="11">
         <v>6</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F175" s="11" t="s">
+        <v>912</v>
+      </c>
+      <c r="G175" s="11" t="s">
+        <v>913</v>
+      </c>
+      <c r="H175" s="11" t="s">
         <v>914</v>
-      </c>
-      <c r="G175" s="11" t="s">
-        <v>915</v>
-      </c>
-      <c r="H175" s="11" t="s">
-        <v>916</v>
       </c>
       <c r="I175" s="11">
         <v>1090903</v>
@@ -10419,28 +10419,28 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C176" s="11">
         <v>6</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F176" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="H176" s="11" t="s">
         <v>917</v>
-      </c>
-      <c r="G176" s="11" t="s">
-        <v>918</v>
-      </c>
-      <c r="H176" s="11" t="s">
-        <v>919</v>
       </c>
       <c r="I176" s="11">
         <v>1090921</v>
@@ -10451,10 +10451,10 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C177" s="11">
         <v>6</v>
@@ -10463,16 +10463,16 @@
         <v>272</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F177" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="G177" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="H177" s="11" t="s">
         <v>920</v>
-      </c>
-      <c r="G177" s="11" t="s">
-        <v>921</v>
-      </c>
-      <c r="H177" s="11" t="s">
-        <v>922</v>
       </c>
       <c r="I177" s="11">
         <v>1090406</v>
@@ -10481,10 +10481,10 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C178" s="11">
         <v>6</v>
@@ -10493,13 +10493,13 @@
         <v>272</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H178" s="11"/>
       <c r="I178" s="11">
@@ -10509,10 +10509,10 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C179" s="11">
         <v>6</v>
@@ -10521,16 +10521,16 @@
         <v>272</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F179" s="11" t="s">
+        <v>923</v>
+      </c>
+      <c r="G179" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="H179" s="11" t="s">
         <v>925</v>
-      </c>
-      <c r="G179" s="11" t="s">
-        <v>926</v>
-      </c>
-      <c r="H179" s="11" t="s">
-        <v>927</v>
       </c>
       <c r="I179" s="11">
         <v>1090509</v>
@@ -10539,10 +10539,10 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C180" s="11">
         <v>6</v>
@@ -10551,30 +10551,30 @@
         <v>272</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F180" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="G180" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="H180" s="11" t="s">
         <v>928</v>
-      </c>
-      <c r="G180" s="11" t="s">
-        <v>929</v>
-      </c>
-      <c r="H180" s="11" t="s">
-        <v>930</v>
       </c>
       <c r="I180" s="11">
         <v>1090408</v>
       </c>
       <c r="J180" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C181" s="11">
         <v>6</v>
@@ -10583,13 +10583,13 @@
         <v>272</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F181" s="11" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H181" s="11"/>
       <c r="I181" s="11">
@@ -10599,10 +10599,10 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C182" s="11">
         <v>6</v>
@@ -10611,16 +10611,16 @@
         <v>272</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F182" s="11" t="s">
+        <v>931</v>
+      </c>
+      <c r="G182" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="H182" s="11" t="s">
         <v>933</v>
-      </c>
-      <c r="G182" s="11" t="s">
-        <v>934</v>
-      </c>
-      <c r="H182" s="11" t="s">
-        <v>935</v>
       </c>
       <c r="I182" s="11">
         <v>1090409</v>
@@ -10629,10 +10629,10 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C183" s="11">
         <v>6</v>
@@ -10641,16 +10641,16 @@
         <v>272</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F183" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="G183" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="H183" s="11" t="s">
         <v>936</v>
-      </c>
-      <c r="G183" s="11" t="s">
-        <v>937</v>
-      </c>
-      <c r="H183" s="11" t="s">
-        <v>938</v>
       </c>
       <c r="I183" s="11">
         <v>1090410</v>
@@ -10659,10 +10659,10 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C184" s="11">
         <v>6</v>
@@ -10671,16 +10671,16 @@
         <v>282</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F184" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="G184" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="H184" s="11" t="s">
         <v>939</v>
-      </c>
-      <c r="G184" s="11" t="s">
-        <v>940</v>
-      </c>
-      <c r="H184" s="11" t="s">
-        <v>941</v>
       </c>
       <c r="I184" s="11">
         <v>1091108</v>
@@ -10689,10 +10689,10 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C185" s="11">
         <v>6</v>
@@ -10701,16 +10701,16 @@
         <v>282</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F185" s="11" t="s">
+        <v>940</v>
+      </c>
+      <c r="G185" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="H185" s="11" t="s">
         <v>942</v>
-      </c>
-      <c r="G185" s="11" t="s">
-        <v>943</v>
-      </c>
-      <c r="H185" s="11" t="s">
-        <v>944</v>
       </c>
       <c r="I185" s="11">
         <v>1091109</v>
@@ -10719,10 +10719,10 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C186" s="11">
         <v>6</v>
@@ -10731,16 +10731,16 @@
         <v>282</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F186" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="G186" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="H186" s="11" t="s">
         <v>945</v>
-      </c>
-      <c r="G186" s="11" t="s">
-        <v>946</v>
-      </c>
-      <c r="H186" s="11" t="s">
-        <v>947</v>
       </c>
       <c r="I186" s="11">
         <v>1091116</v>
@@ -10749,10 +10749,10 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C187" s="11">
         <v>6</v>
@@ -10761,16 +10761,16 @@
         <v>282</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F187" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G187" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="H187" s="11" t="s">
         <v>948</v>
-      </c>
-      <c r="G187" s="11" t="s">
-        <v>949</v>
-      </c>
-      <c r="H187" s="11" t="s">
-        <v>950</v>
       </c>
       <c r="I187" s="11">
         <v>1091110</v>
@@ -10779,10 +10779,10 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C188" s="11">
         <v>6</v>
@@ -10791,30 +10791,30 @@
         <v>282</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F188" s="11" t="s">
+        <v>949</v>
+      </c>
+      <c r="G188" s="11" t="s">
+        <v>950</v>
+      </c>
+      <c r="H188" s="11" t="s">
         <v>951</v>
-      </c>
-      <c r="G188" s="11" t="s">
-        <v>952</v>
-      </c>
-      <c r="H188" s="11" t="s">
-        <v>953</v>
       </c>
       <c r="I188" s="11">
         <v>1091106</v>
       </c>
       <c r="J188" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C189" s="11">
         <v>6</v>
@@ -10823,16 +10823,16 @@
         <v>282</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F189" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="G189" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="H189" s="11" t="s">
         <v>954</v>
-      </c>
-      <c r="G189" s="11" t="s">
-        <v>955</v>
-      </c>
-      <c r="H189" s="11" t="s">
-        <v>956</v>
       </c>
       <c r="I189" s="11">
         <v>1091111</v>
@@ -10841,10 +10841,10 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C190" s="11">
         <v>6</v>
@@ -10853,16 +10853,16 @@
         <v>282</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F190" s="11" t="s">
+        <v>955</v>
+      </c>
+      <c r="G190" s="11" t="s">
+        <v>956</v>
+      </c>
+      <c r="H190" s="11" t="s">
         <v>957</v>
-      </c>
-      <c r="G190" s="11" t="s">
-        <v>958</v>
-      </c>
-      <c r="H190" s="11" t="s">
-        <v>959</v>
       </c>
       <c r="I190" s="11">
         <v>1091112</v>
@@ -10871,10 +10871,10 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C191" s="11">
         <v>6</v>
@@ -10883,16 +10883,16 @@
         <v>282</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F191" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="G191" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="H191" s="11" t="s">
         <v>960</v>
-      </c>
-      <c r="G191" s="11" t="s">
-        <v>961</v>
-      </c>
-      <c r="H191" s="11" t="s">
-        <v>962</v>
       </c>
       <c r="I191" s="11">
         <v>1091107</v>
@@ -10901,10 +10901,10 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C192" s="13">
         <v>6</v>
@@ -10913,19 +10913,19 @@
         <v>134</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F192" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="G192" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="H192" s="13" t="s">
         <v>963</v>
       </c>
-      <c r="G192" s="13" t="s">
+      <c r="I192" s="14" t="s">
         <v>964</v>
-      </c>
-      <c r="H192" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="I192" s="14" t="s">
-        <v>966</v>
       </c>
       <c r="J192" s="13" t="s">
         <v>117</v>
@@ -10933,10 +10933,10 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C193" s="13">
         <v>6</v>
@@ -10945,19 +10945,19 @@
         <v>134</v>
       </c>
       <c r="E193" s="13" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F193" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="G193" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="H193" s="13" t="s">
         <v>967</v>
       </c>
-      <c r="G193" s="13" t="s">
+      <c r="I193" s="14" t="s">
         <v>968</v>
-      </c>
-      <c r="H193" s="13" t="s">
-        <v>969</v>
-      </c>
-      <c r="I193" s="14" t="s">
-        <v>970</v>
       </c>
       <c r="J193" s="13" t="s">
         <v>119</v>
@@ -10965,10 +10965,10 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C194" s="13">
         <v>6</v>
@@ -10977,19 +10977,19 @@
         <v>134</v>
       </c>
       <c r="E194" s="13" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F194" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="G194" s="13" t="s">
+        <v>970</v>
+      </c>
+      <c r="H194" s="13" t="s">
         <v>971</v>
       </c>
-      <c r="G194" s="13" t="s">
+      <c r="I194" s="14" t="s">
         <v>972</v>
-      </c>
-      <c r="H194" s="13" t="s">
-        <v>973</v>
-      </c>
-      <c r="I194" s="14" t="s">
-        <v>974</v>
       </c>
       <c r="J194" s="13" t="s">
         <v>121</v>
@@ -10997,10 +10997,10 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C195" s="13">
         <v>6</v>
@@ -11009,30 +11009,30 @@
         <v>134</v>
       </c>
       <c r="E195" s="13" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F195" s="13" t="s">
+        <v>973</v>
+      </c>
+      <c r="G195" s="13" t="s">
+        <v>974</v>
+      </c>
+      <c r="H195" s="13" t="s">
         <v>975</v>
       </c>
-      <c r="G195" s="13" t="s">
+      <c r="I195" s="14" t="s">
         <v>976</v>
       </c>
-      <c r="H195" s="13" t="s">
+      <c r="J195" s="13" t="s">
         <v>977</v>
-      </c>
-      <c r="I195" s="14" t="s">
-        <v>978</v>
-      </c>
-      <c r="J195" s="13" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C196" s="13">
         <v>6</v>
@@ -11041,19 +11041,19 @@
         <v>134</v>
       </c>
       <c r="E196" s="13" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F196" s="13" t="s">
+        <v>978</v>
+      </c>
+      <c r="G196" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="H196" s="13" t="s">
         <v>980</v>
       </c>
-      <c r="G196" s="13" t="s">
+      <c r="I196" s="14" t="s">
         <v>981</v>
-      </c>
-      <c r="H196" s="13" t="s">
-        <v>982</v>
-      </c>
-      <c r="I196" s="14" t="s">
-        <v>983</v>
       </c>
       <c r="J196" s="13" t="s">
         <v>123</v>
@@ -11061,25 +11061,25 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C197" s="11">
         <v>6</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G197" s="11" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H197" s="11"/>
       <c r="I197" s="11">
@@ -11091,60 +11091,60 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C198" s="11">
         <v>6</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F198" s="11" t="s">
+        <v>984</v>
+      </c>
+      <c r="G198" s="11" t="s">
+        <v>985</v>
+      </c>
+      <c r="H198" s="11" t="s">
         <v>986</v>
-      </c>
-      <c r="G198" s="11" t="s">
-        <v>987</v>
-      </c>
-      <c r="H198" s="11" t="s">
-        <v>988</v>
       </c>
       <c r="I198" s="11">
         <v>1090107</v>
       </c>
       <c r="J198" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C199" s="11">
         <v>6</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F199" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="G199" s="11" t="s">
+        <v>988</v>
+      </c>
+      <c r="H199" s="11" t="s">
         <v>989</v>
-      </c>
-      <c r="G199" s="11" t="s">
-        <v>990</v>
-      </c>
-      <c r="H199" s="11" t="s">
-        <v>991</v>
       </c>
       <c r="I199" s="11">
         <v>1090106</v>
@@ -11156,28 +11156,28 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C200" s="11">
         <v>6</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F200" s="11" t="s">
+        <v>990</v>
+      </c>
+      <c r="G200" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="H200" s="11" t="s">
         <v>992</v>
-      </c>
-      <c r="G200" s="11" t="s">
-        <v>993</v>
-      </c>
-      <c r="H200" s="11" t="s">
-        <v>994</v>
       </c>
       <c r="I200" s="11">
         <v>1090113</v>
@@ -11188,28 +11188,28 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C201" s="11">
         <v>6</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F201" s="11" t="s">
+        <v>993</v>
+      </c>
+      <c r="G201" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="H201" s="11" t="s">
         <v>995</v>
-      </c>
-      <c r="G201" s="11" t="s">
-        <v>996</v>
-      </c>
-      <c r="H201" s="11" t="s">
-        <v>997</v>
       </c>
       <c r="I201" s="11">
         <v>1090108</v>
@@ -11220,28 +11220,28 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C202" s="11">
         <v>6</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E202" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F202" s="11" t="s">
+        <v>996</v>
+      </c>
+      <c r="G202" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="H202" s="11" t="s">
         <v>998</v>
-      </c>
-      <c r="G202" s="11" t="s">
-        <v>999</v>
-      </c>
-      <c r="H202" s="11" t="s">
-        <v>1000</v>
       </c>
       <c r="I202" s="11">
         <v>1090109</v>
@@ -11252,58 +11252,58 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C203" s="16">
         <v>6</v>
       </c>
       <c r="D203" s="16" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F203" s="16" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="G203" s="16" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="H203" s="16"/>
       <c r="I203" s="16">
         <v>1090102</v>
       </c>
       <c r="J203" s="16" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C204" s="11">
         <v>6</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F204" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G204" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H204" s="11" t="s">
         <v>1002</v>
-      </c>
-      <c r="G204" s="11" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H204" s="11" t="s">
-        <v>1004</v>
       </c>
       <c r="I204" s="11">
         <v>1090100</v>
@@ -11314,25 +11314,25 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C205" s="11">
         <v>6</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F205" s="11" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="G205" s="11" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="H205" s="11"/>
       <c r="I205" s="11">
@@ -11725,7 +11725,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>93</v>
@@ -11741,7 +11741,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>152</v>
@@ -11773,7 +11773,7 @@
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>100</v>
@@ -11821,7 +11821,7 @@
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>151</v>
@@ -12092,7 +12092,7 @@
         <v>180</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -12197,15 +12197,15 @@
         <v>206</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -12213,7 +12213,7 @@
         <v>208</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C30" s="3"/>
     </row>
@@ -12472,7 +12472,7 @@
         <v>272</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C62" s="3"/>
     </row>
@@ -12514,7 +12514,7 @@
         <v>282</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C67" s="3"/>
     </row>
@@ -12755,7 +12755,7 @@
         <v>342</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -12800,39 +12800,39 @@
     </row>
     <row r="103" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>181</v>
@@ -12840,7 +12840,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>207</v>
@@ -12848,7 +12848,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>209</v>
@@ -12856,47 +12856,47 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>273</v>
@@ -12904,7 +12904,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>283</v>
@@ -13439,7 +13439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849AD34E-7686-0A42-93B7-B225DA2E3DAB}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -13458,7 +13458,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B2">
         <v>81776</v>
@@ -13466,7 +13466,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B3">
         <v>81776</v>
@@ -13588,7 +13588,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -13604,7 +13604,7 @@
         <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>362</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -13612,7 +13612,7 @@
         <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -13620,7 +13620,7 @@
         <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -13628,7 +13628,7 @@
         <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>364</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -13636,7 +13636,7 @@
         <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
